--- a/data/nbb.xlsx
+++ b/data/nbb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="616">
   <si>
     <t>From</t>
   </si>
@@ -214,7 +214,10 @@
     <t>BNAG BE BB</t>
   </si>
   <si>
-    <t>Delta Lloyd Bank</t>
+    <t>Bank Nagelmackers</t>
+  </si>
+  <si>
+    <t>Banque Nagelmackers</t>
   </si>
   <si>
     <t>133</t>
@@ -406,24 +409,6 @@
     <t>220</t>
   </si>
   <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
     <t>298</t>
   </si>
   <si>
@@ -760,7 +745,7 @@
     <t>CITI BE BX</t>
   </si>
   <si>
-    <t>Citibank International Limited, Belgium Branch</t>
+    <t>Citibank Europe Plc - Belgium Branch</t>
   </si>
   <si>
     <t>580</t>
@@ -925,15 +910,6 @@
     <t>626</t>
   </si>
   <si>
-    <t>CPBI FRPP</t>
-  </si>
-  <si>
-    <t>CP OR Devises S.A.</t>
-  </si>
-  <si>
-    <t>627</t>
-  </si>
-  <si>
     <t>629</t>
   </si>
   <si>
@@ -973,10 +949,7 @@
     <t>ADIA BE 22</t>
   </si>
   <si>
-    <t>Antwerpse Diamantbank</t>
-  </si>
-  <si>
-    <t>Banque Diamantaire Anversoise</t>
+    <t>KBC Bank N.V. Business Center Diamant</t>
   </si>
   <si>
     <t>641</t>
@@ -1165,10 +1138,7 @@
     <t>676</t>
   </si>
   <si>
-    <t>Bank Degroof</t>
-  </si>
-  <si>
-    <t>Banque Degroof</t>
+    <t>Bank Degroof Petercam</t>
   </si>
   <si>
     <t>677</t>
@@ -1186,10 +1156,7 @@
     <t>DELE BE 22</t>
   </si>
   <si>
-    <t>Bank Delen</t>
-  </si>
-  <si>
-    <t>Banque Delen</t>
+    <t>Delen Private Bank</t>
   </si>
   <si>
     <t>679</t>
@@ -1468,12 +1435,6 @@
     <t>842</t>
   </si>
   <si>
-    <t>UBSW BE BB</t>
-  </si>
-  <si>
-    <t>UBS (Luxembourg)</t>
-  </si>
-  <si>
     <t>843</t>
   </si>
   <si>
@@ -1576,7 +1537,7 @@
     <t>MBWM BE BB</t>
   </si>
   <si>
-    <t>Mediterranean Bank (Malta)</t>
+    <t>MeDirect Bank S.A.</t>
   </si>
   <si>
     <t>877</t>
@@ -1672,18 +1633,21 @@
     <t>915</t>
   </si>
   <si>
+    <t>916</t>
+  </si>
+  <si>
+    <t>GOCF BE B1</t>
+  </si>
+  <si>
+    <t>GOLD COMMODITIES FOREX (G.C.F.)</t>
+  </si>
+  <si>
     <t>917</t>
   </si>
   <si>
     <t>918</t>
   </si>
   <si>
-    <t>BILL BE BB</t>
-  </si>
-  <si>
-    <t>Banque Internationale à Luxembourg</t>
-  </si>
-  <si>
     <t>919</t>
   </si>
   <si>
@@ -1897,7 +1861,7 @@
     <t>Numéros réservés aux paiements par chèques circulaires et assignations</t>
   </si>
   <si>
-    <t>version 10/03/2015</t>
+    <t>version 01/01/2016</t>
   </si>
 </sst>
 </file>
@@ -2303,7 +2267,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G286"/>
+  <dimension ref="A1:G281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2320,7 +2284,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2820,7 +2784,7 @@
         <v>66</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -2831,10 +2795,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>36</v>
@@ -2854,10 +2818,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>43</v>
@@ -2877,10 +2841,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>13</v>
@@ -2900,19 +2864,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -2923,19 +2887,19 @@
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -2946,10 +2910,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>13</v>
@@ -2969,16 +2933,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
@@ -2992,10 +2956,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>43</v>
@@ -3015,16 +2979,16 @@
     </row>
     <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>10</v>
@@ -3038,10 +3002,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>43</v>
@@ -3061,10 +3025,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>57</v>
@@ -3084,16 +3048,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
@@ -3107,16 +3071,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>10</v>
@@ -3130,10 +3094,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>43</v>
@@ -3153,19 +3117,19 @@
     </row>
     <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -3176,16 +3140,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
@@ -3199,16 +3163,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
@@ -3222,10 +3186,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>43</v>
@@ -3245,16 +3209,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>10</v>
@@ -3268,10 +3232,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>43</v>
@@ -3291,16 +3255,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>10</v>
@@ -3314,10 +3278,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>43</v>
@@ -3337,16 +3301,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>10</v>
@@ -3360,19 +3324,19 @@
     </row>
     <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -3383,10 +3347,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>13</v>
@@ -3406,10 +3370,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>43</v>
@@ -3429,10 +3393,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
@@ -3452,19 +3416,19 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -3478,19 +3442,19 @@
         <v>133</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>10</v>
@@ -3498,19 +3462,19 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -3521,19 +3485,19 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -3544,16 +3508,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
@@ -3567,22 +3531,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>10</v>
@@ -3590,19 +3554,19 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -3613,19 +3577,19 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -3636,16 +3600,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
@@ -3659,19 +3623,19 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -3682,19 +3646,19 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -3705,19 +3669,19 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -3728,16 +3692,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>10</v>
@@ -3749,21 +3713,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -3774,16 +3738,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
@@ -3797,19 +3761,19 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -3820,19 +3784,19 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -3841,21 +3805,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -3866,19 +3830,19 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -3889,16 +3853,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>10</v>
@@ -3912,10 +3876,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>43</v>
@@ -3935,16 +3899,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>10</v>
@@ -3958,19 +3922,19 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -3981,19 +3945,19 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -4004,19 +3968,19 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>43</v>
+        <v>196</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -4027,16 +3991,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>10</v>
@@ -4050,19 +4014,19 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>194</v>
+        <v>43</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>195</v>
+        <v>43</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -4073,19 +4037,19 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -4096,19 +4060,19 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -4119,19 +4083,19 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>204</v>
+        <v>43</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>192</v>
+        <v>43</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -4142,19 +4106,19 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>43</v>
+        <v>209</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -4165,19 +4129,19 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -4188,19 +4152,19 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -4211,19 +4175,19 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -4234,16 +4198,16 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>10</v>
@@ -4257,19 +4221,19 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>43</v>
+        <v>221</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>44</v>
+        <v>221</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -4280,19 +4244,19 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>219</v>
+        <v>43</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -4303,19 +4267,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -4326,16 +4290,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>10</v>
@@ -4349,19 +4313,19 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>225</v>
+        <v>43</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>226</v>
+        <v>43</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>226</v>
+        <v>44</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -4375,16 +4339,16 @@
         <v>227</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D91" s="2" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -4395,19 +4359,19 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>73</v>
+        <v>231</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>74</v>
+        <v>232</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -4418,19 +4382,19 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -4441,19 +4405,19 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>43</v>
+        <v>236</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -4464,19 +4428,19 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>233</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>234</v>
+        <v>18</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -4487,16 +4451,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>10</v>
@@ -4510,19 +4474,19 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -4533,16 +4497,16 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>10</v>
@@ -4556,19 +4520,19 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -4577,21 +4541,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>248</v>
+        <v>10</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -4602,19 +4566,19 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -4623,21 +4587,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>252</v>
+        <v>10</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>10</v>
+        <v>257</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -4648,19 +4612,19 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>43</v>
+        <v>259</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>44</v>
+        <v>260</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -4669,21 +4633,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>10</v>
+        <v>263</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>256</v>
+        <v>10</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -4694,16 +4658,16 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>10</v>
@@ -4715,21 +4679,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>261</v>
+        <v>43</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -4740,19 +4704,19 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>10</v>
+        <v>271</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>265</v>
+        <v>10</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -4763,16 +4727,16 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>10</v>
@@ -4786,19 +4750,19 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>270</v>
+        <v>74</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -4809,10 +4773,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>43</v>
@@ -4832,16 +4796,16 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>10</v>
@@ -4855,19 +4819,19 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>279</v>
+        <v>43</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>280</v>
+        <v>43</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -4878,19 +4842,19 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>73</v>
+        <v>284</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -4901,10 +4865,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>43</v>
@@ -4922,18 +4886,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>285</v>
+        <v>98</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>286</v>
+        <v>10</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>10</v>
@@ -4942,24 +4906,24 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>10</v>
+        <v>288</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>43</v>
+        <v>291</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>43</v>
+        <v>292</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -4970,19 +4934,19 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>289</v>
+        <v>43</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>290</v>
+        <v>43</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -4993,68 +4957,68 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E118" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>293</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>296</v>
+        <v>135</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>297</v>
+        <v>136</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>10</v>
@@ -5062,10 +5026,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>43</v>
@@ -5085,19 +5049,19 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -5108,19 +5072,19 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>303</v>
+        <v>43</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>304</v>
+        <v>43</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -5131,19 +5095,19 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>306</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -5157,19 +5121,19 @@
         <v>307</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="D125" s="2" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>10</v>
@@ -5180,16 +5144,16 @@
         <v>309</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D126" s="2" t="s">
-        <v>43</v>
+        <v>311</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -5200,19 +5164,19 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>312</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -5229,13 +5193,13 @@
         <v>313</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>43</v>
+        <v>314</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -5246,19 +5210,19 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>317</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>18</v>
+        <v>318</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -5269,19 +5233,19 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>316</v>
+        <v>43</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -5290,21 +5254,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>320</v>
+        <v>10</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -5315,19 +5279,19 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -5338,19 +5302,19 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>323</v>
+        <v>43</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -5359,21 +5323,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>326</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -5433,13 +5397,13 @@
         <v>332</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>10</v>
@@ -5453,7 +5417,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>334</v>
@@ -5474,7 +5438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>335</v>
       </c>
@@ -5482,13 +5446,13 @@
         <v>335</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>27</v>
+        <v>336</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>10</v>
+        <v>337</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>336</v>
+        <v>10</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -5499,19 +5463,19 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -5522,16 +5486,16 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>10</v>
@@ -5545,19 +5509,19 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -5568,19 +5532,19 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>43</v>
+        <v>345</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>43</v>
+        <v>346</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -5591,16 +5555,16 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>10</v>
@@ -5614,19 +5578,19 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>17</v>
+        <v>351</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -5637,19 +5601,19 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>349</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -5660,10 +5624,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>43</v>
@@ -5683,16 +5647,16 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>10</v>
@@ -5706,19 +5670,19 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>357</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -5729,16 +5693,16 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>33</v>
+        <v>362</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>10</v>
@@ -5752,19 +5716,19 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>27</v>
+        <v>364</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>363</v>
+        <v>10</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -5775,19 +5739,19 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -5798,16 +5762,16 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>366</v>
+        <v>115</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>367</v>
+        <v>116</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>10</v>
@@ -5827,13 +5791,13 @@
         <v>368</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>27</v>
+        <v>369</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>362</v>
+        <v>159</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>363</v>
+        <v>10</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -5844,16 +5808,16 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>10</v>
@@ -5867,13 +5831,13 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>373</v>
+        <v>250</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>374</v>
@@ -5888,7 +5852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>375</v>
       </c>
@@ -5896,13 +5860,13 @@
         <v>375</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>17</v>
+        <v>376</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>19</v>
+        <v>377</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -5913,16 +5877,16 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>114</v>
+        <v>379</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>115</v>
+        <v>380</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>10</v>
@@ -5936,19 +5900,19 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>164</v>
+        <v>383</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>10</v>
+        <v>383</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -5959,19 +5923,19 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>380</v>
+        <v>17</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>381</v>
+        <v>18</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -5982,19 +5946,19 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>255</v>
+        <v>43</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>383</v>
+        <v>43</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>384</v>
+        <v>44</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -6003,21 +5967,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>386</v>
+        <v>17</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>387</v>
+        <v>19</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -6034,13 +5998,13 @@
         <v>388</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>389</v>
+        <v>43</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>390</v>
+        <v>43</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>391</v>
+        <v>44</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -6051,19 +6015,19 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>394</v>
-      </c>
       <c r="E164" s="2" t="s">
-        <v>394</v>
+        <v>10</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -6074,19 +6038,19 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E165" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -6103,13 +6067,13 @@
         <v>396</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>43</v>
+        <v>397</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>43</v>
+        <v>398</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -6120,19 +6084,19 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -6143,19 +6107,19 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>43</v>
+        <v>401</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>43</v>
+        <v>402</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -6166,19 +6130,19 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>402</v>
+        <v>43</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>403</v>
+        <v>43</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -6189,16 +6153,16 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>10</v>
@@ -6212,16 +6176,16 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>408</v>
+        <v>291</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>409</v>
+        <v>292</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>10</v>
@@ -6235,10 +6199,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>43</v>
@@ -6258,16 +6222,16 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C173" s="2" t="s">
+      <c r="D173" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>10</v>
@@ -6281,10 +6245,10 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>43</v>
@@ -6304,16 +6268,16 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>10</v>
@@ -6327,19 +6291,19 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>296</v>
+        <v>43</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>297</v>
+        <v>43</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -6350,19 +6314,19 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D177" s="2" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -6373,19 +6337,19 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>422</v>
+        <v>74</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>423</v>
+        <v>75</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -6402,13 +6366,13 @@
         <v>424</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>43</v>
+        <v>425</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -6419,16 +6383,16 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>10</v>
@@ -6442,19 +6406,19 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -6465,16 +6429,16 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>10</v>
@@ -6494,13 +6458,13 @@
         <v>434</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -6509,21 +6473,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>435</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>436</v>
+        <v>124</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -6540,36 +6504,36 @@
         <v>438</v>
       </c>
       <c r="C185" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D185" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>441</v>
-      </c>
       <c r="B186" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -6580,65 +6544,65 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B188" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
+      <c r="B189" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>447</v>
-      </c>
       <c r="C189" s="2" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
@@ -6649,42 +6613,42 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>450</v>
-      </c>
       <c r="C191" s="2" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
@@ -6695,42 +6659,42 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B193" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
+      <c r="D193" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E193" s="2" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
@@ -6747,13 +6711,13 @@
         <v>455</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>146</v>
+        <v>43</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
@@ -6767,13 +6731,13 @@
         <v>456</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>431</v>
-      </c>
       <c r="D195" s="2" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>10</v>
@@ -6787,19 +6751,19 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>459</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>18</v>
+        <v>460</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
@@ -6810,16 +6774,16 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>431</v>
+        <v>291</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>432</v>
+        <v>292</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>10</v>
@@ -6833,16 +6797,16 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>463</v>
+        <v>336</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>464</v>
+        <v>337</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>10</v>
@@ -6856,19 +6820,19 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
@@ -6879,19 +6843,19 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>468</v>
+        <v>43</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>469</v>
+        <v>43</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
@@ -6902,19 +6866,19 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>471</v>
+        <v>18</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
@@ -6925,16 +6889,16 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>296</v>
+        <v>469</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>297</v>
+        <v>470</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>10</v>
@@ -6948,19 +6912,19 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>345</v>
+        <v>43</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>346</v>
+        <v>43</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
@@ -6971,16 +6935,16 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>114</v>
+        <v>236</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>115</v>
+        <v>237</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>10</v>
@@ -6994,19 +6958,19 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E205" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
@@ -7020,16 +6984,16 @@
         <v>477</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>18</v>
+        <v>374</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
@@ -7040,19 +7004,19 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>480</v>
+        <v>43</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>481</v>
+        <v>43</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
@@ -7063,19 +7027,19 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>43</v>
+        <v>480</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>44</v>
+        <v>481</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
@@ -7086,19 +7050,19 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>483</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>484</v>
+        <v>43</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>485</v>
+        <v>43</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
@@ -7109,16 +7073,16 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>241</v>
+        <v>351</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>242</v>
+        <v>33</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>10</v>
@@ -7132,19 +7096,19 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>487</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>488</v>
+        <v>43</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>489</v>
+        <v>43</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
@@ -7155,19 +7119,19 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>383</v>
-      </c>
       <c r="E212" s="2" t="s">
-        <v>384</v>
+        <v>10</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
@@ -7181,16 +7145,16 @@
         <v>491</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>43</v>
+        <v>351</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
@@ -7201,19 +7165,19 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>493</v>
+        <v>43</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>494</v>
+        <v>44</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
@@ -7224,19 +7188,19 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>496</v>
-      </c>
       <c r="C215" s="2" t="s">
-        <v>43</v>
+        <v>351</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
@@ -7247,19 +7211,19 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>360</v>
+        <v>43</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
@@ -7270,19 +7234,19 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
@@ -7293,19 +7257,19 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>502</v>
+        <v>74</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>503</v>
+        <v>75</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
@@ -7316,19 +7280,19 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>360</v>
+        <v>65</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
@@ -7339,19 +7303,19 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>43</v>
+        <v>382</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>43</v>
+        <v>383</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>44</v>
+        <v>383</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
@@ -7362,19 +7326,19 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>360</v>
+        <v>65</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
@@ -7385,19 +7349,19 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>43</v>
+        <v>504</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
@@ -7408,16 +7372,16 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>146</v>
+        <v>506</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>147</v>
+        <v>507</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>10</v>
@@ -7431,19 +7395,19 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
@@ -7454,16 +7418,16 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>10</v>
@@ -7477,19 +7441,19 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C226" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>393</v>
-      </c>
       <c r="D226" s="2" t="s">
-        <v>394</v>
+        <v>515</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>394</v>
+        <v>10</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
@@ -7500,19 +7464,19 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
@@ -7523,19 +7487,19 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>517</v>
+        <v>43</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
@@ -7546,16 +7510,16 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>10</v>
@@ -7569,16 +7533,16 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>65</v>
+        <v>351</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>10</v>
@@ -7592,16 +7556,16 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>524</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>114</v>
+        <v>521</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>115</v>
+        <v>522</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>10</v>
@@ -7618,13 +7582,13 @@
         <v>525</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>527</v>
+        <v>236</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>528</v>
+        <v>237</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>10</v>
@@ -7638,19 +7602,19 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
@@ -7661,19 +7625,19 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>43</v>
+        <v>528</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>43</v>
+        <v>529</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
@@ -7684,16 +7648,16 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>534</v>
+        <v>27</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>10</v>
@@ -7707,16 +7671,16 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>360</v>
+        <v>533</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>33</v>
+        <v>534</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>10</v>
@@ -7730,16 +7694,16 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>537</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>535</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>10</v>
@@ -7759,13 +7723,13 @@
         <v>538</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>241</v>
+        <v>43</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>242</v>
+        <v>43</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
@@ -7782,10 +7746,10 @@
         <v>539</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>114</v>
+        <v>540</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>115</v>
+        <v>541</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>10</v>
@@ -7799,19 +7763,19 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>541</v>
+        <v>43</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>542</v>
+        <v>43</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
@@ -7822,19 +7786,19 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>544</v>
+        <v>75</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
@@ -7848,13 +7812,13 @@
         <v>545</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>546</v>
+        <v>115</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>547</v>
+        <v>116</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>10</v>
@@ -7868,19 +7832,19 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>549</v>
+        <v>43</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>550</v>
+        <v>43</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
@@ -7891,19 +7855,19 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
@@ -7914,19 +7878,19 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>554</v>
+        <v>43</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>555</v>
+        <v>43</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>10</v>
@@ -7937,19 +7901,19 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>73</v>
+        <v>551</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>74</v>
+        <v>552</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
@@ -7960,19 +7924,19 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>10</v>
@@ -7983,19 +7947,19 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
@@ -8006,42 +7970,42 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="B249" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G249" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="2" t="s">
+      <c r="D250" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E250" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>10</v>
@@ -8058,10 +8022,10 @@
         <v>562</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>563</v>
+        <v>171</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>564</v>
+        <v>172</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>10</v>
@@ -8075,19 +8039,19 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>43</v>
+        <v>564</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>10</v>
@@ -8098,16 +8062,16 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D253" s="2" t="s">
         <v>566</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>10</v>
@@ -8121,42 +8085,42 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C254" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="B254" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="C254" s="2" t="s">
+      <c r="D254" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="D254" s="2" t="s">
+      <c r="E254" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="E254" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F254" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G254" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A255" s="2" t="s">
-        <v>571</v>
-      </c>
       <c r="B255" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>572</v>
+        <v>43</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>573</v>
+        <v>44</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>10</v>
@@ -8167,16 +8131,16 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>176</v>
+        <v>572</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>177</v>
+        <v>573</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>10</v>
@@ -8190,19 +8154,19 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>576</v>
+        <v>43</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
@@ -8213,16 +8177,16 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D258" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>578</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>10</v>
@@ -8236,16 +8200,16 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>579</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>580</v>
+        <v>274</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>581</v>
+        <v>275</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>10</v>
@@ -8259,19 +8223,19 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
@@ -8282,16 +8246,16 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>584</v>
+        <v>115</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>585</v>
+        <v>116</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>10</v>
@@ -8305,19 +8269,19 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>43</v>
+        <v>336</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>43</v>
+        <v>337</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
@@ -8328,16 +8292,16 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>588</v>
+        <v>420</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>589</v>
+        <v>421</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>10</v>
@@ -8351,19 +8315,19 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>279</v>
+        <v>74</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
@@ -8374,16 +8338,16 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>163</v>
+        <v>336</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>164</v>
+        <v>337</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>10</v>
@@ -8397,19 +8361,19 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
@@ -8420,19 +8384,19 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>345</v>
+        <v>43</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>346</v>
+        <v>43</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
@@ -8443,19 +8407,19 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>431</v>
+        <v>589</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>432</v>
+        <v>10</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>10</v>
+        <v>590</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
@@ -8466,19 +8430,19 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
@@ -8489,16 +8453,16 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>345</v>
+        <v>115</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>346</v>
+        <v>116</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>10</v>
@@ -8512,42 +8476,42 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G271" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="E272" s="2" t="s">
         <v>598</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F271" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G271" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
@@ -8558,19 +8522,19 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>601</v>
+        <v>43</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>602</v>
+        <v>44</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>10</v>
@@ -8581,16 +8545,16 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>176</v>
+        <v>420</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>177</v>
+        <v>421</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>10</v>
@@ -8604,16 +8568,16 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>10</v>
@@ -8627,19 +8591,19 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>10</v>
@@ -8650,19 +8614,19 @@
     </row>
     <row r="277" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>10</v>
@@ -8673,19 +8637,19 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>43</v>
+        <v>382</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>43</v>
+        <v>383</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>44</v>
+        <v>383</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>10</v>
@@ -8696,16 +8660,16 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>432</v>
+        <v>9</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>10</v>
@@ -8719,163 +8683,48 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G280" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E281" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="B280" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F280" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G280" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A281" s="2" t="s">
+      <c r="F281" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G281" s="2" t="s">
         <v>614</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F281" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G281" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A282" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="F282" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G282" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A283" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="F283" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G283" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A284" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F284" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G284" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A285" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="F285" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G285" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A286" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="E286" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="F286" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="G286" s="2" t="s">
-        <v>626</v>
       </c>
     </row>
   </sheetData>

--- a/data/nbb.xlsx
+++ b/data/nbb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="605">
   <si>
     <t>From</t>
   </si>
@@ -124,19 +124,16 @@
     <t>110</t>
   </si>
   <si>
-    <t>BKCP BE BB</t>
-  </si>
-  <si>
-    <t>BKCP BANK</t>
-  </si>
-  <si>
-    <t>BKCP BANQUE</t>
+    <t>CTBK BE BX</t>
+  </si>
+  <si>
+    <t>Beobank</t>
   </si>
   <si>
     <t>111</t>
   </si>
   <si>
-    <t>ABER BE 21</t>
+    <t>ABER BE 22</t>
   </si>
   <si>
     <t>ABK Bank</t>
@@ -250,12 +247,6 @@
     <t>139</t>
   </si>
   <si>
-    <t>Nationale Investeringsmaatschappij (N.I.M.)</t>
-  </si>
-  <si>
-    <t>Société Nationale d'Investissement (S.N.I.)</t>
-  </si>
-  <si>
     <t>140</t>
   </si>
   <si>
@@ -274,18 +265,6 @@
     <t>151</t>
   </si>
   <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>Fédérale de Crédit Artisanal de Liège (in vereffening-en liquidation)</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
     <t>170</t>
   </si>
   <si>
@@ -295,13 +274,13 @@
     <t>172</t>
   </si>
   <si>
+    <t>173</t>
+  </si>
+  <si>
     <t>RABO BE 23</t>
   </si>
   <si>
-    <t>Rabobank International Antwerp Branch</t>
-  </si>
-  <si>
-    <t>173</t>
+    <t>Coöperatieve Rabobank U.A.</t>
   </si>
   <si>
     <t>174</t>
@@ -838,12 +817,6 @@
     <t>601</t>
   </si>
   <si>
-    <t>CTBK BE BX</t>
-  </si>
-  <si>
-    <t>Beobank</t>
-  </si>
-  <si>
     <t>602</t>
   </si>
   <si>
@@ -898,6 +871,12 @@
     <t>614</t>
   </si>
   <si>
+    <t>615</t>
+  </si>
+  <si>
+    <t>622</t>
+  </si>
+  <si>
     <t>623</t>
   </si>
   <si>
@@ -1192,7 +1171,7 @@
     <t>BOFA BE 3X</t>
   </si>
   <si>
-    <t>Bank of America, National Association</t>
+    <t>Bank of Amerika Merrill Lynch International Ltd</t>
   </si>
   <si>
     <t>687</t>
@@ -1237,7 +1216,7 @@
     <t>BOTK BE BX</t>
   </si>
   <si>
-    <t>The Bank of Tokyo-Mitsubishi</t>
+    <t>MUFG Bank (Europe)</t>
   </si>
   <si>
     <t>694</t>
@@ -1291,7 +1270,7 @@
     <t>719</t>
   </si>
   <si>
-    <t>FTSB BE 22</t>
+    <t>ABNA BE 2A XXX</t>
   </si>
   <si>
     <t>720</t>
@@ -1372,7 +1351,7 @@
     <t>817</t>
   </si>
   <si>
-    <t>-</t>
+    <t>ISAE BE BB</t>
   </si>
   <si>
     <t>CACEIS Bank Luxembourg</t>
@@ -1453,18 +1432,6 @@
     <t>846</t>
   </si>
   <si>
-    <t>847</t>
-  </si>
-  <si>
-    <t>Saxo Bank (Frankrijk)</t>
-  </si>
-  <si>
-    <t>Saxo Bank (France)</t>
-  </si>
-  <si>
-    <t>848</t>
-  </si>
-  <si>
     <t>849</t>
   </si>
   <si>
@@ -1603,7 +1570,7 @@
     <t>TUNZ BE B1</t>
   </si>
   <si>
-    <t>TUNZ.COM</t>
+    <t>Ingenico Financial Solutions</t>
   </si>
   <si>
     <t>912</t>
@@ -1699,7 +1666,7 @@
     <t>CVMC BE BB</t>
   </si>
   <si>
-    <t>Crédit Agricole Luxembourg, succursale en Belgique / Bijbank in België</t>
+    <t>C A Indosuez Wealth (Europe)</t>
   </si>
   <si>
     <t>942</t>
@@ -1861,7 +1828,7 @@
     <t>Numéros réservés aux paiements par chèques circulaires et assignations</t>
   </si>
   <si>
-    <t>version 01/01/2016</t>
+    <t>version 14/05/2016</t>
   </si>
 </sst>
 </file>
@@ -2267,7 +2234,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G281"/>
+  <dimension ref="A1:G278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2284,7 +2251,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2462,7 +2429,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
@@ -2473,16 +2440,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
@@ -2496,19 +2463,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
@@ -2519,10 +2486,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>36</v>
@@ -2531,7 +2498,7 @@
         <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
@@ -2542,19 +2509,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -2565,19 +2532,19 @@
     </row>
     <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -2588,19 +2555,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -2611,10 +2578,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>36</v>
@@ -2623,7 +2590,7 @@
         <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -2634,16 +2601,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
@@ -2657,10 +2624,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>36</v>
@@ -2669,7 +2636,7 @@
         <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -2680,19 +2647,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -2703,10 +2670,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>36</v>
@@ -2715,7 +2682,7 @@
         <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -2726,19 +2693,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -2749,10 +2716,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>36</v>
@@ -2761,7 +2728,7 @@
         <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -2772,19 +2739,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -2795,10 +2762,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>36</v>
@@ -2807,7 +2774,7 @@
         <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -2818,19 +2785,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="C25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -2841,10 +2808,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>13</v>
@@ -2864,42 +2831,42 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="B28" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -2910,10 +2877,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>13</v>
@@ -2933,16 +2900,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
@@ -2956,20 +2923,20 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
@@ -2977,21 +2944,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -3002,19 +2969,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -3025,42 +2992,42 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -3071,16 +3038,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>10</v>
@@ -3094,42 +3061,42 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -3140,16 +3107,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
@@ -3163,19 +3130,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -3186,19 +3153,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -3212,16 +3179,16 @@
         <v>110</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -3232,19 +3199,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D43" s="2" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -3253,21 +3220,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -3278,19 +3245,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -3301,19 +3268,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -3322,21 +3289,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -3347,16 +3314,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>10</v>
@@ -3370,22 +3337,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>10</v>
@@ -3393,16 +3360,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>10</v>
@@ -3416,19 +3383,19 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -3439,22 +3406,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>10</v>
@@ -3462,19 +3429,19 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -3485,19 +3452,19 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -3534,16 +3501,16 @@
         <v>147</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D56" s="2" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -3554,19 +3521,19 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -3577,16 +3544,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>10</v>
@@ -3600,19 +3567,19 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -3644,7 +3611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>160</v>
       </c>
@@ -3655,10 +3622,10 @@
         <v>161</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -3675,13 +3642,13 @@
         <v>163</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -3692,16 +3659,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>10</v>
@@ -3713,21 +3680,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -3767,13 +3734,13 @@
         <v>173</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -3784,19 +3751,19 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -3813,13 +3780,13 @@
         <v>177</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -3830,19 +3797,19 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -3882,13 +3849,13 @@
         <v>184</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>44</v>
+        <v>187</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -3899,16 +3866,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>10</v>
@@ -3922,16 +3889,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>10</v>
@@ -3945,19 +3912,19 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>194</v>
+        <v>43</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -3997,13 +3964,13 @@
         <v>198</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>199</v>
+        <v>73</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -4014,19 +3981,19 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="C77" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -4037,16 +4004,16 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C78" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>10</v>
@@ -4060,19 +4027,19 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -4086,16 +4053,16 @@
         <v>206</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -4112,13 +4079,13 @@
         <v>208</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>209</v>
+        <v>73</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>210</v>
+        <v>74</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -4129,19 +4096,19 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -4152,19 +4119,19 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>214</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -4178,16 +4145,16 @@
         <v>215</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -4198,19 +4165,19 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>217</v>
+        <v>73</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>218</v>
+        <v>74</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -4221,19 +4188,19 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -4244,19 +4211,19 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C87" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -4267,19 +4234,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -4290,16 +4257,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>10</v>
@@ -4316,16 +4283,16 @@
         <v>226</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -4336,16 +4303,16 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>10</v>
@@ -4359,19 +4326,19 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>231</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>232</v>
+        <v>18</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -4388,13 +4355,13 @@
         <v>234</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>235</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>18</v>
+        <v>236</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -4405,19 +4372,19 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>236</v>
+        <v>42</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>237</v>
+        <v>42</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -4431,16 +4398,16 @@
         <v>238</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D95" s="2" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -4451,42 +4418,42 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>241</v>
       </c>
       <c r="C96" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="B97" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="D97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -4518,7 +4485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>248</v>
       </c>
@@ -4526,13 +4493,13 @@
         <v>248</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>43</v>
+        <v>249</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -4541,21 +4508,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -4566,16 +4533,16 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>10</v>
@@ -4587,21 +4554,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>257</v>
+        <v>10</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -4612,19 +4579,19 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>259</v>
+        <v>42</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>260</v>
+        <v>43</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -4638,13 +4605,13 @@
         <v>261</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>10</v>
@@ -4658,16 +4625,16 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>265</v>
+        <v>36</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>266</v>
+        <v>37</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>10</v>
@@ -4687,13 +4654,13 @@
         <v>267</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -4710,13 +4677,13 @@
         <v>269</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>270</v>
+        <v>42</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>271</v>
+        <v>42</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -4727,16 +4694,16 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>10</v>
@@ -4750,19 +4717,19 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -4773,19 +4740,19 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>43</v>
+        <v>275</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>43</v>
+        <v>276</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -4796,62 +4763,62 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>10</v>
@@ -4865,65 +4832,65 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="C115" s="2" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>288</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>291</v>
+        <v>42</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>292</v>
+        <v>42</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -4934,19 +4901,19 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -4957,19 +4924,19 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -4980,22 +4947,22 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>10</v>
@@ -5003,22 +4970,22 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>10</v>
@@ -5026,19 +4993,19 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -5049,19 +5016,19 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -5072,19 +5039,19 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -5095,19 +5062,19 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>301</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -5118,16 +5085,16 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>159</v>
+        <v>304</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>10</v>
@@ -5141,19 +5108,19 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>310</v>
+        <v>42</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>311</v>
+        <v>42</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -5164,19 +5131,19 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>43</v>
+        <v>308</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -5187,16 +5154,16 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>10</v>
@@ -5210,19 +5177,19 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>317</v>
+        <v>42</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>318</v>
+        <v>42</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -5233,19 +5200,19 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>43</v>
+        <v>314</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -5256,19 +5223,19 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>321</v>
+        <v>64</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>322</v>
+        <v>65</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -5279,19 +5246,19 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -5300,44 +5267,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C133" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>327</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -5348,19 +5315,19 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>43</v>
+        <v>323</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -5371,16 +5338,16 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>330</v>
+        <v>108</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>331</v>
+        <v>109</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>10</v>
@@ -5394,19 +5361,19 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -5417,19 +5384,19 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>43</v>
+        <v>329</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>43</v>
+        <v>330</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -5440,19 +5407,19 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>336</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>337</v>
+        <v>18</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -5463,19 +5430,19 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>333</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>18</v>
+        <v>334</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -5486,19 +5453,19 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>340</v>
+        <v>42</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>341</v>
+        <v>42</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -5509,19 +5476,19 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>43</v>
+        <v>338</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>43</v>
+        <v>339</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -5532,16 +5499,16 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>10</v>
@@ -5555,16 +5522,16 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>349</v>
+        <v>33</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>10</v>
@@ -5578,19 +5545,19 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>351</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>33</v>
+        <v>346</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>10</v>
+        <v>347</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -5601,19 +5568,19 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>353</v>
+        <v>42</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>354</v>
+        <v>43</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -5624,19 +5591,19 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>43</v>
+        <v>350</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>43</v>
+        <v>351</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -5647,19 +5614,19 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>357</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>10</v>
+        <v>347</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -5670,19 +5637,19 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>27</v>
+        <v>354</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>354</v>
+        <v>10</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -5693,16 +5660,16 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>10</v>
@@ -5716,19 +5683,19 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>364</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>365</v>
+        <v>18</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -5739,19 +5706,19 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -5762,16 +5729,16 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>115</v>
+        <v>362</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>10</v>
@@ -5785,16 +5752,16 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>159</v>
+        <v>365</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>10</v>
@@ -5808,65 +5775,65 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C155" s="2" t="s">
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="B157" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="E155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
+      <c r="D157" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E157" s="2" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -5877,19 +5844,19 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>10</v>
+        <v>376</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -5900,19 +5867,19 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>382</v>
+        <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>383</v>
+        <v>18</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>383</v>
+        <v>19</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -5923,19 +5890,19 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -5946,19 +5913,19 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -5969,19 +5936,19 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -5992,19 +5959,19 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>43</v>
+        <v>384</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>43</v>
+        <v>385</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -6015,16 +5982,16 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>10</v>
@@ -6038,16 +6005,16 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>10</v>
@@ -6061,19 +6028,19 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>397</v>
+        <v>42</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>398</v>
+        <v>42</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -6084,19 +6051,19 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>43</v>
+        <v>394</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>43</v>
+        <v>395</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -6107,19 +6074,19 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>401</v>
+        <v>42</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>402</v>
+        <v>42</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -6130,19 +6097,19 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>43</v>
+        <v>399</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>43</v>
+        <v>400</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -6153,16 +6120,16 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>406</v>
+        <v>282</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>407</v>
+        <v>283</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>10</v>
@@ -6176,19 +6143,19 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>291</v>
+        <v>42</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>292</v>
+        <v>42</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -6199,19 +6166,19 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>43</v>
+        <v>404</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>43</v>
+        <v>405</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -6222,19 +6189,19 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>411</v>
+        <v>42</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>412</v>
+        <v>42</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -6245,19 +6212,19 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>43</v>
+        <v>408</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>43</v>
+        <v>409</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -6268,19 +6235,19 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>415</v>
+        <v>42</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>416</v>
+        <v>42</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -6291,19 +6258,19 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>43</v>
+        <v>413</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>43</v>
+        <v>414</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -6314,19 +6281,19 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>420</v>
+        <v>73</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>421</v>
+        <v>74</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -6337,19 +6304,19 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>74</v>
+        <v>418</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -6360,16 +6327,16 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>159</v>
+        <v>422</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>10</v>
@@ -6383,16 +6350,16 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>428</v>
+        <v>151</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>429</v>
+        <v>152</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>10</v>
@@ -6406,16 +6373,16 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>158</v>
+        <v>421</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>159</v>
+        <v>422</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>10</v>
@@ -6429,157 +6396,157 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="C184" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
+      <c r="B185" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B186" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
+      <c r="C186" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B187" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
+      <c r="B188" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>442</v>
-      </c>
       <c r="C188" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -6590,16 +6557,16 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>141</v>
+        <v>413</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>142</v>
+        <v>414</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>10</v>
@@ -6613,19 +6580,19 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>420</v>
+        <v>17</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>421</v>
+        <v>18</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
@@ -6636,19 +6603,19 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>17</v>
+        <v>413</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>18</v>
+        <v>414</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
@@ -6659,16 +6626,16 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>10</v>
@@ -6682,19 +6649,19 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>452</v>
+        <v>42</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>453</v>
+        <v>42</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
@@ -6705,19 +6672,19 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>43</v>
+        <v>450</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>43</v>
+        <v>451</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
@@ -6728,16 +6695,16 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>457</v>
+        <v>91</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>10</v>
@@ -6751,16 +6718,16 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>98</v>
+        <v>282</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>460</v>
+        <v>283</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>10</v>
@@ -6774,16 +6741,16 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>10</v>
@@ -6797,16 +6764,16 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>336</v>
+        <v>108</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>337</v>
+        <v>109</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>10</v>
@@ -6820,19 +6787,19 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
@@ -6843,19 +6810,19 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
@@ -6866,19 +6833,19 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>17</v>
+        <v>462</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>18</v>
+        <v>463</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
@@ -6889,19 +6856,19 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>469</v>
+        <v>42</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>470</v>
+        <v>42</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
@@ -6912,19 +6879,19 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>43</v>
+        <v>230</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
@@ -6935,16 +6902,16 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>236</v>
+        <v>468</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>237</v>
+        <v>469</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>10</v>
@@ -6958,16 +6925,16 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>475</v>
+        <v>243</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>476</v>
+        <v>367</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>10</v>
@@ -6981,19 +6948,19 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>374</v>
+        <v>42</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
@@ -7004,19 +6971,19 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>43</v>
+        <v>344</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
@@ -7027,19 +6994,19 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>480</v>
+        <v>42</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>481</v>
+        <v>43</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
@@ -7050,19 +7017,19 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>43</v>
+        <v>478</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>43</v>
+        <v>479</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
@@ -7073,13 +7040,13 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>33</v>
@@ -7096,19 +7063,19 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C211" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E211" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
@@ -7119,16 +7086,16 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>489</v>
+        <v>344</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>490</v>
+        <v>33</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>10</v>
@@ -7142,19 +7109,19 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>351</v>
+        <v>42</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
@@ -7165,19 +7132,19 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
@@ -7188,19 +7155,19 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>351</v>
+        <v>73</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
@@ -7211,19 +7178,19 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
@@ -7234,19 +7201,19 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>141</v>
+        <v>375</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>142</v>
+        <v>376</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>10</v>
+        <v>376</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
@@ -7257,19 +7224,19 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
@@ -7280,19 +7247,19 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>66</v>
+        <v>493</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
@@ -7303,19 +7270,19 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>382</v>
+        <v>495</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>383</v>
+        <v>496</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>383</v>
+        <v>10</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
@@ -7326,19 +7293,19 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C221" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D221" s="2" t="s">
+      <c r="E221" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
@@ -7349,16 +7316,16 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>504</v>
+        <v>109</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>10</v>
@@ -7372,16 +7339,16 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>10</v>
@@ -7395,19 +7362,19 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
@@ -7418,19 +7385,19 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
@@ -7441,16 +7408,16 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>10</v>
@@ -7464,19 +7431,19 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>74</v>
+        <v>344</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
@@ -7487,19 +7454,19 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>43</v>
+        <v>510</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>43</v>
+        <v>511</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
@@ -7510,16 +7477,16 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>521</v>
+        <v>229</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>522</v>
+        <v>230</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>10</v>
@@ -7533,16 +7500,16 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>351</v>
+        <v>108</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>10</v>
@@ -7556,16 +7523,16 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>10</v>
@@ -7579,16 +7546,16 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>237</v>
+        <v>520</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>10</v>
@@ -7602,16 +7569,16 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>115</v>
+        <v>522</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>116</v>
+        <v>523</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>10</v>
@@ -7625,16 +7592,16 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>10</v>
@@ -7648,19 +7615,19 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>531</v>
+        <v>42</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
@@ -7671,16 +7638,16 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>10</v>
@@ -7694,19 +7661,19 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>536</v>
+        <v>42</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>537</v>
+        <v>42</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
@@ -7717,19 +7684,19 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
@@ -7740,16 +7707,16 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>540</v>
+        <v>108</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>541</v>
+        <v>109</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>10</v>
@@ -7763,19 +7730,19 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C240" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E240" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
@@ -7786,19 +7753,19 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
@@ -7809,19 +7776,19 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
@@ -7832,19 +7799,19 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>43</v>
+        <v>540</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>43</v>
+        <v>541</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
@@ -7855,19 +7822,19 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
@@ -7878,19 +7845,19 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>10</v>
@@ -7901,16 +7868,16 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>10</v>
@@ -7924,19 +7891,19 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>43</v>
+        <v>549</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>43</v>
+        <v>550</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>10</v>
@@ -7947,16 +7914,16 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>10</v>
@@ -7970,16 +7937,16 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>557</v>
+        <v>27</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>10</v>
@@ -7991,21 +7958,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>560</v>
+        <v>354</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>10</v>
+        <v>555</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>561</v>
+        <v>10</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>10</v>
@@ -8016,16 +7983,16 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>171</v>
+        <v>557</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>172</v>
+        <v>558</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>10</v>
@@ -8039,19 +8006,19 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>564</v>
+        <v>42</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>10</v>
@@ -8062,16 +8029,16 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>361</v>
+        <v>561</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>10</v>
@@ -8085,19 +8052,19 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>568</v>
+        <v>42</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>569</v>
+        <v>42</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
@@ -8108,19 +8075,19 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>43</v>
+        <v>565</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>43</v>
+        <v>566</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>10</v>
@@ -8131,16 +8098,16 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>572</v>
+        <v>36</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>573</v>
+        <v>37</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>10</v>
@@ -8154,19 +8121,19 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
@@ -8177,16 +8144,16 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>576</v>
+        <v>108</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>577</v>
+        <v>109</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>10</v>
@@ -8200,16 +8167,16 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>274</v>
+        <v>329</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>275</v>
+        <v>330</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>10</v>
@@ -8223,16 +8190,16 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>158</v>
+        <v>413</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>159</v>
+        <v>414</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>10</v>
@@ -8246,19 +8213,19 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
@@ -8269,16 +8236,16 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>10</v>
@@ -8292,19 +8259,19 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>420</v>
+        <v>73</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>421</v>
+        <v>74</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
@@ -8315,19 +8282,19 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
@@ -8338,19 +8305,19 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>336</v>
+        <v>578</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>337</v>
+        <v>10</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>10</v>
+        <v>579</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
@@ -8361,19 +8328,19 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
@@ -8384,19 +8351,19 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
@@ -8407,19 +8374,19 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>589</v>
+        <v>73</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>590</v>
+        <v>75</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
@@ -8428,21 +8395,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>171</v>
+        <v>585</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>172</v>
+        <v>586</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>10</v>
+        <v>587</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
@@ -8453,19 +8420,19 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
@@ -8476,19 +8443,19 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>74</v>
+        <v>413</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>75</v>
+        <v>414</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>10</v>
@@ -8497,21 +8464,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>596</v>
+        <v>108</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>597</v>
+        <v>109</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>598</v>
+        <v>10</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
@@ -8522,20 +8489,20 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="C273" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E273" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D273" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F273" s="2" t="s">
         <v>10</v>
       </c>
@@ -8543,21 +8510,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>420</v>
+        <v>585</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>421</v>
+        <v>586</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>10</v>
+        <v>587</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>10</v>
@@ -8568,19 +8535,19 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>115</v>
+        <v>375</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>116</v>
+        <v>376</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>10</v>
+        <v>376</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>10</v>
@@ -8591,140 +8558,71 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G276" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G277" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="E278" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="B276" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F276" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G276" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A277" s="2" t="s">
+      <c r="F278" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G278" s="2" t="s">
         <v>603</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="F277" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G277" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="F278" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G278" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G279" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A280" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="F280" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G280" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A281" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="F281" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="G281" s="2" t="s">
-        <v>614</v>
       </c>
     </row>
   </sheetData>

--- a/data/nbb.xlsx
+++ b/data/nbb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="603">
   <si>
     <t>From</t>
   </si>
@@ -157,18 +157,6 @@
     <t>115</t>
   </si>
   <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>Beleggings- en Kredietkantoor voor de Middenstand (in verreffening)</t>
-  </si>
-  <si>
-    <t>Comptoir de Dépôts et de Crédit aux Classes Moyennes (en liquidation)</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
     <t>118</t>
   </si>
   <si>
@@ -298,6 +286,12 @@
     <t>176</t>
   </si>
   <si>
+    <t>BSCH BE BB RET</t>
+  </si>
+  <si>
+    <t>Santander Benelux</t>
+  </si>
+  <si>
     <t>177</t>
   </si>
   <si>
@@ -427,6 +421,12 @@
     <t>500</t>
   </si>
   <si>
+    <t>MTPS BE BB</t>
+  </si>
+  <si>
+    <t>Moneytrans Payment Services</t>
+  </si>
+  <si>
     <t>501</t>
   </si>
   <si>
@@ -478,10 +478,16 @@
     <t>510</t>
   </si>
   <si>
-    <t>VAPE BE 21</t>
-  </si>
-  <si>
-    <t>van de Put &amp; Co Effectenbank</t>
+    <t>VAPE BE 22</t>
+  </si>
+  <si>
+    <t>VAN DE PUT &amp; CO Privaatbankiers</t>
+  </si>
+  <si>
+    <t>VAN DE PUT &amp; CO Banquiers Privés</t>
+  </si>
+  <si>
+    <t>VAN DE PUT &amp; CO Private Bankers</t>
   </si>
   <si>
     <t>511</t>
@@ -706,7 +712,7 @@
     <t>FTNO BE B1</t>
   </si>
   <si>
-    <t>FORTUNEO BELGIUM</t>
+    <t>Arkéa Direct Bank (nom commercial / commerciële naam: Keytrade Bank)</t>
   </si>
   <si>
     <t>562</t>
@@ -736,7 +742,7 @@
     <t>MHCB BE BB</t>
   </si>
   <si>
-    <t>Mizuho Bank Nederland N.V. Brussels Branch</t>
+    <t>Mizuho Bank Europe N.V. Brussels Branch</t>
   </si>
   <si>
     <t>582</t>
@@ -790,7 +796,7 @@
     <t>588</t>
   </si>
   <si>
-    <t>CMCI BE B1</t>
+    <t>CMCI BE B1 BTB</t>
   </si>
   <si>
     <t>Banque Transatlantique Belgium</t>
@@ -808,9 +814,6 @@
     <t>BSCH BE BB</t>
   </si>
   <si>
-    <t>Santander Benelux</t>
-  </si>
-  <si>
     <t>595</t>
   </si>
   <si>
@@ -853,7 +856,7 @@
     <t>609</t>
   </si>
   <si>
-    <t>Elavon Financial Services Limited Belgian Branch</t>
+    <t>Elavon Financial Services Designated Activity Company</t>
   </si>
   <si>
     <t>610</t>
@@ -988,27 +991,15 @@
     <t>KEYT BE BB</t>
   </si>
   <si>
-    <t>Keytrade Bank</t>
-  </si>
-  <si>
     <t>652</t>
   </si>
   <si>
     <t>653</t>
   </si>
   <si>
-    <t>655</t>
-  </si>
-  <si>
     <t>656</t>
   </si>
   <si>
-    <t>ETHI BE BB</t>
-  </si>
-  <si>
-    <t>OPTIMA BANK</t>
-  </si>
-  <si>
     <t>657</t>
   </si>
   <si>
@@ -1048,9 +1039,6 @@
     <t>665</t>
   </si>
   <si>
-    <t>SPAA BE 22</t>
-  </si>
-  <si>
     <t>666</t>
   </si>
   <si>
@@ -1354,7 +1342,7 @@
     <t>ISAE BE BB</t>
   </si>
   <si>
-    <t>CACEIS Bank Luxembourg</t>
+    <t>CACEIS Bank Belgian Branch</t>
   </si>
   <si>
     <t>818</t>
@@ -1459,6 +1447,15 @@
     <t>859</t>
   </si>
   <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>861</t>
+  </si>
+  <si>
+    <t>862</t>
+  </si>
+  <si>
     <t>863</t>
   </si>
   <si>
@@ -1495,7 +1492,7 @@
     <t>875</t>
   </si>
   <si>
-    <t>Union Bancaire Privée (Europe)</t>
+    <t>VRIJ - LIBRE</t>
   </si>
   <si>
     <t>876</t>
@@ -1600,6 +1597,12 @@
     <t>915</t>
   </si>
   <si>
+    <t>OONX BE B1</t>
+  </si>
+  <si>
+    <t>Oonex</t>
+  </si>
+  <si>
     <t>916</t>
   </si>
   <si>
@@ -1612,6 +1615,12 @@
     <t>917</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Buy Way Personal Finance</t>
+  </si>
+  <si>
     <t>918</t>
   </si>
   <si>
@@ -1696,15 +1705,6 @@
     <t>946</t>
   </si>
   <si>
-    <t>947</t>
-  </si>
-  <si>
-    <t>AARB BE B1</t>
-  </si>
-  <si>
-    <t>Aareal Bank - Brussels Branch</t>
-  </si>
-  <si>
     <t>948</t>
   </si>
   <si>
@@ -1738,12 +1738,6 @@
     <t>964</t>
   </si>
   <si>
-    <t>965</t>
-  </si>
-  <si>
-    <t>966</t>
-  </si>
-  <si>
     <t>967</t>
   </si>
   <si>
@@ -1828,7 +1822,7 @@
     <t>Numéros réservés aux paiements par chèques circulaires et assignations</t>
   </si>
   <si>
-    <t>version 14/05/2016</t>
+    <t>version 20/02/2017</t>
   </si>
 </sst>
 </file>
@@ -2234,7 +2228,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G278"/>
+  <dimension ref="A1:G273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2251,7 +2245,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2512,7 +2506,7 @@
         <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>42</v>
@@ -2530,21 +2524,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -2561,13 +2555,13 @@
         <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -2578,10 +2572,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>36</v>
@@ -2601,19 +2595,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -2624,10 +2618,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>36</v>
@@ -2647,10 +2641,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>42</v>
@@ -2670,10 +2664,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>36</v>
@@ -2693,19 +2687,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -2716,10 +2710,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>36</v>
@@ -2739,19 +2733,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -2765,13 +2759,13 @@
         <v>67</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
@@ -2785,19 +2779,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -2808,19 +2802,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -2831,19 +2825,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -2854,19 +2848,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -2877,19 +2871,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -2900,19 +2894,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -2923,19 +2917,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -2946,19 +2940,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -2967,9 +2961,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>86</v>
@@ -2978,10 +2972,10 @@
         <v>87</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -2998,13 +2992,13 @@
         <v>89</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -3013,21 +3007,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -3038,16 +3032,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>10</v>
@@ -3061,19 +3055,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -3087,16 +3081,16 @@
         <v>101</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D38" s="2" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -3107,19 +3101,19 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -3130,19 +3124,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -3153,19 +3147,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -3179,16 +3173,16 @@
         <v>110</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -3197,21 +3191,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -3220,21 +3214,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -3251,13 +3245,13 @@
         <v>120</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -3274,13 +3268,13 @@
         <v>122</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -3294,13 +3288,13 @@
         <v>123</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
@@ -3314,22 +3308,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>10</v>
@@ -3337,22 +3331,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>10</v>
@@ -3360,16 +3354,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>10</v>
@@ -3383,19 +3377,19 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -3406,19 +3400,19 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -3429,19 +3423,19 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -3452,19 +3446,19 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -3475,16 +3469,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
@@ -3498,16 +3492,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>10</v>
@@ -3519,44 +3513,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -3567,19 +3561,19 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -3588,21 +3582,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -3611,21 +3605,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -3636,16 +3630,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>10</v>
@@ -3659,19 +3653,19 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -3682,19 +3676,19 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -3705,19 +3699,19 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -3728,19 +3722,19 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -3751,19 +3745,19 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -3774,19 +3768,19 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -3797,16 +3791,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>10</v>
@@ -3820,19 +3814,19 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -3843,19 +3837,19 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>187</v>
+        <v>10</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -3866,16 +3860,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>10</v>
@@ -3889,19 +3883,19 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -3912,19 +3906,19 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>42</v>
+        <v>199</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -3935,19 +3929,19 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>197</v>
+        <v>70</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -3958,19 +3952,19 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -3981,19 +3975,19 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>42</v>
+        <v>205</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -4004,19 +3998,19 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>202</v>
+        <v>42</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>203</v>
+        <v>42</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -4027,19 +4021,19 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -4050,19 +4044,19 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>207</v>
+        <v>70</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -4073,19 +4067,19 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -4096,19 +4090,19 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>10</v>
+        <v>216</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -4119,19 +4113,19 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>213</v>
+        <v>42</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -4142,19 +4136,19 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -4165,19 +4159,19 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -4188,19 +4182,19 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -4211,19 +4205,19 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>42</v>
+        <v>223</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>42</v>
+        <v>224</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -4234,16 +4228,16 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>10</v>
@@ -4257,19 +4251,19 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>224</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -4278,21 +4272,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -4303,19 +4297,19 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>230</v>
+        <v>18</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -4326,19 +4320,19 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>237</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -4349,19 +4343,19 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>236</v>
+        <v>42</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -4372,19 +4366,19 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -4395,19 +4389,19 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>240</v>
+        <v>42</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -4416,21 +4410,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>42</v>
+        <v>245</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>43</v>
+        <v>246</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -4439,21 +4433,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>10</v>
+        <v>249</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -4462,21 +4456,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -4485,21 +4479,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -4510,19 +4504,19 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>10</v>
+        <v>258</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>253</v>
+        <v>10</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -4533,16 +4527,16 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>10</v>
@@ -4556,19 +4550,19 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>258</v>
+        <v>42</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>259</v>
+        <v>42</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -4579,19 +4573,19 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>42</v>
+        <v>265</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -4602,16 +4596,16 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>263</v>
+        <v>36</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>264</v>
+        <v>37</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>10</v>
@@ -4625,19 +4619,19 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -4648,19 +4642,19 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -4671,19 +4665,19 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>42</v>
+        <v>272</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>42</v>
+        <v>273</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -4694,19 +4688,19 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>271</v>
+        <v>42</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>272</v>
+        <v>42</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -4717,19 +4711,19 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -4740,19 +4734,19 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>275</v>
+        <v>42</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>276</v>
+        <v>42</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -4761,41 +4755,41 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>91</v>
+        <v>283</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>10</v>
+        <v>284</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>10</v>
@@ -4804,24 +4798,24 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>279</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>282</v>
+        <v>42</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -4832,22 +4826,22 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>10</v>
@@ -4855,22 +4849,22 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>10</v>
@@ -4878,19 +4872,19 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -4901,19 +4895,19 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -4924,22 +4918,22 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>10</v>
@@ -4947,22 +4941,22 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>10</v>
@@ -4970,19 +4964,19 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -4993,19 +4987,19 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -5016,19 +5010,19 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -5039,19 +5033,19 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -5062,16 +5056,16 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>152</v>
+        <v>305</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>10</v>
@@ -5085,19 +5079,19 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>303</v>
+        <v>42</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>304</v>
+        <v>42</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -5108,19 +5102,19 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>42</v>
+        <v>308</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>42</v>
+        <v>309</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -5131,16 +5125,16 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>10</v>
@@ -5154,19 +5148,19 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>310</v>
+        <v>42</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>311</v>
+        <v>42</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -5177,19 +5171,19 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>42</v>
+        <v>315</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -5200,19 +5194,19 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>314</v>
+        <v>60</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>315</v>
+        <v>61</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -5223,19 +5217,19 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -5244,45 +5238,45 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E132" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
@@ -5290,21 +5284,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>42</v>
+        <v>324</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>42</v>
+        <v>232</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -5315,16 +5309,16 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>323</v>
+        <v>106</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>324</v>
+        <v>107</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>10</v>
@@ -5338,19 +5332,19 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -5361,19 +5355,19 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -5384,16 +5378,16 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>10</v>
@@ -5407,19 +5401,19 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -5430,16 +5424,16 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>10</v>
@@ -5453,19 +5447,19 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>42</v>
+        <v>338</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>42</v>
+        <v>339</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -5476,19 +5470,19 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>338</v>
+        <v>42</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>339</v>
+        <v>42</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -5499,19 +5493,19 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>341</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>342</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>10</v>
+        <v>343</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -5522,19 +5516,19 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>344</v>
+        <v>42</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -5551,13 +5545,13 @@
         <v>345</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>27</v>
+        <v>346</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>347</v>
+        <v>10</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -5574,13 +5568,13 @@
         <v>348</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>42</v>
+        <v>342</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>43</v>
+        <v>343</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -5620,13 +5614,13 @@
         <v>352</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>27</v>
+        <v>353</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>347</v>
+        <v>10</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -5637,19 +5631,19 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>354</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>355</v>
+        <v>18</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -5666,10 +5660,10 @@
         <v>356</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>357</v>
+        <v>106</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>358</v>
+        <v>107</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>10</v>
@@ -5683,19 +5677,19 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>17</v>
+        <v>358</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -5706,16 +5700,16 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="D152" s="2" t="s">
-        <v>109</v>
+        <v>361</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>10</v>
@@ -5729,16 +5723,16 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>362</v>
+        <v>245</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>152</v>
+        <v>363</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>10</v>
@@ -5750,21 +5744,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>365</v>
+        <v>10</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>10</v>
+        <v>366</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -5775,16 +5769,16 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>243</v>
+        <v>368</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>10</v>
@@ -5796,21 +5790,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>10</v>
+        <v>372</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -5821,19 +5815,19 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>372</v>
+        <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>373</v>
+        <v>18</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -5850,13 +5844,13 @@
         <v>374</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>375</v>
+        <v>42</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>376</v>
+        <v>42</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>376</v>
+        <v>43</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -5867,10 +5861,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>17</v>
@@ -5890,10 +5884,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>42</v>
@@ -5913,19 +5907,19 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="C161" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D161" s="2" t="s">
-        <v>18</v>
+        <v>381</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -5936,19 +5930,19 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>42</v>
+        <v>383</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>42</v>
+        <v>384</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -5959,16 +5953,16 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>10</v>
@@ -5982,19 +5976,19 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>387</v>
+        <v>42</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>388</v>
+        <v>42</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -6031,7 +6025,7 @@
         <v>392</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>42</v>
@@ -6051,16 +6045,16 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>10</v>
@@ -6074,19 +6068,19 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>397</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>42</v>
+        <v>284</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -6103,13 +6097,13 @@
         <v>398</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>399</v>
+        <v>42</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -6120,16 +6114,16 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>10</v>
@@ -6215,13 +6209,13 @@
         <v>407</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>10</v>
@@ -6235,10 +6229,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>42</v>
@@ -6258,16 +6252,16 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>414</v>
+        <v>152</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>10</v>
@@ -6287,13 +6281,13 @@
         <v>416</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>73</v>
+        <v>417</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>74</v>
+        <v>418</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -6304,13 +6298,13 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>418</v>
+        <v>151</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>152</v>
@@ -6327,16 +6321,16 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>10</v>
@@ -6350,16 +6344,16 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>423</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>10</v>
@@ -6371,7 +6365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>424</v>
       </c>
@@ -6379,13 +6373,13 @@
         <v>425</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>421</v>
+        <v>115</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>422</v>
+        <v>10</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -6402,10 +6396,10 @@
         <v>427</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>10</v>
@@ -6422,16 +6416,16 @@
         <v>428</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -6442,16 +6436,16 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>431</v>
-      </c>
       <c r="C184" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>10</v>
@@ -6465,19 +6459,19 @@
     </row>
     <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -6488,42 +6482,42 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="C186" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>435</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>117</v>
+        <v>409</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>10</v>
+        <v>410</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -6540,13 +6534,13 @@
         <v>437</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -6563,10 +6557,10 @@
         <v>439</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>10</v>
@@ -6583,16 +6577,16 @@
         <v>440</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D190" s="2" t="s">
-        <v>18</v>
+        <v>442</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
@@ -6603,19 +6597,19 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>413</v>
+        <v>42</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>414</v>
+        <v>42</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
@@ -6626,16 +6620,16 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>10</v>
@@ -6649,19 +6643,19 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>448</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
@@ -6672,16 +6666,16 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>450</v>
+        <v>283</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>451</v>
+        <v>284</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>10</v>
@@ -6701,13 +6695,13 @@
         <v>452</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>453</v>
+        <v>42</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
@@ -6718,16 +6712,16 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>282</v>
+        <v>106</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>283</v>
+        <v>107</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>10</v>
@@ -6741,19 +6735,19 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>329</v>
+        <v>42</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>330</v>
+        <v>42</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
@@ -6764,19 +6758,19 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
@@ -6787,19 +6781,19 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C199" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D199" s="2" t="s">
-        <v>42</v>
+        <v>459</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
@@ -6810,19 +6804,19 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
@@ -6831,18 +6825,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>462</v>
+        <v>231</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>463</v>
+        <v>232</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>10</v>
@@ -6856,19 +6850,19 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="D202" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E202" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
@@ -6885,10 +6879,10 @@
         <v>466</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>230</v>
+        <v>363</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>10</v>
@@ -6905,16 +6899,16 @@
         <v>467</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>468</v>
+        <v>42</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>469</v>
+        <v>42</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
@@ -6925,16 +6919,16 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>470</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>243</v>
+        <v>32</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>367</v>
+        <v>33</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>10</v>
@@ -6974,13 +6968,13 @@
         <v>473</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C207" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="D207" s="2" t="s">
-        <v>33</v>
+        <v>475</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>10</v>
@@ -6994,19 +6988,19 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
@@ -7017,19 +7011,19 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>478</v>
+        <v>42</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>479</v>
+        <v>42</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
@@ -7040,13 +7034,13 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>481</v>
-      </c>
       <c r="C210" s="2" t="s">
-        <v>344</v>
+        <v>32</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>33</v>
@@ -7063,10 +7057,10 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>42</v>
@@ -7086,13 +7080,13 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="C212" s="2" t="s">
-        <v>344</v>
+        <v>32</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>33</v>
@@ -7109,10 +7103,10 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>42</v>
@@ -7132,16 +7126,16 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>10</v>
@@ -7155,19 +7149,19 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
@@ -7178,19 +7172,19 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>489</v>
-      </c>
       <c r="C216" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
@@ -7201,19 +7195,19 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
@@ -7224,19 +7218,19 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
@@ -7247,19 +7241,19 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C219" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D219" s="2" t="s">
-        <v>493</v>
+        <v>42</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
@@ -7270,16 +7264,16 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="C220" s="2" t="s">
+      <c r="D220" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>496</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>10</v>
@@ -7293,19 +7287,19 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>498</v>
-      </c>
       <c r="C221" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
@@ -7316,16 +7310,16 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>500</v>
-      </c>
       <c r="C222" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>10</v>
@@ -7339,16 +7333,16 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="C223" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="D223" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>10</v>
@@ -7362,19 +7356,19 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>506</v>
-      </c>
       <c r="C224" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
@@ -7385,10 +7379,10 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>42</v>
@@ -7408,16 +7402,16 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C226" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="C226" s="2" t="s">
+      <c r="D226" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>10</v>
@@ -7431,19 +7425,19 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>344</v>
+        <v>42</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
@@ -7454,39 +7448,39 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B229" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>514</v>
-      </c>
       <c r="C229" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>10</v>
@@ -7500,16 +7494,16 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>10</v>
@@ -7523,16 +7517,16 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C231" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="C231" s="2" t="s">
+      <c r="D231" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>518</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>10</v>
@@ -7546,16 +7540,16 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>10</v>
@@ -7569,16 +7563,16 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C233" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="C233" s="2" t="s">
+      <c r="D233" s="2" t="s">
         <v>522</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>523</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>10</v>
@@ -7592,16 +7586,16 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C234" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="C234" s="2" t="s">
+      <c r="D234" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>10</v>
@@ -7615,19 +7609,19 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C235" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B235" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D235" s="2" t="s">
-        <v>42</v>
+        <v>528</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
@@ -7638,16 +7632,16 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>10</v>
@@ -7661,19 +7655,19 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>532</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>42</v>
+        <v>533</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>42</v>
+        <v>534</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
@@ -7684,19 +7678,19 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
@@ -7707,16 +7701,16 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>10</v>
@@ -7730,10 +7724,10 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>42</v>
@@ -7753,16 +7747,16 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>10</v>
@@ -7776,10 +7770,10 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>42</v>
@@ -7799,16 +7793,16 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>10</v>
@@ -7822,10 +7816,10 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>42</v>
@@ -7845,16 +7839,16 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>10</v>
@@ -7868,16 +7862,16 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>10</v>
@@ -7891,16 +7885,16 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>10</v>
@@ -7914,16 +7908,16 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>10</v>
@@ -7937,16 +7931,16 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>10</v>
@@ -7960,16 +7954,16 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>10</v>
@@ -7983,16 +7977,16 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>10</v>
@@ -8006,10 +8000,10 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>42</v>
@@ -8029,16 +8023,16 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>10</v>
@@ -8052,19 +8046,19 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
@@ -8075,16 +8069,16 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>565</v>
+        <v>151</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>566</v>
+        <v>152</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>10</v>
@@ -8098,16 +8092,16 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>10</v>
@@ -8121,19 +8115,19 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
@@ -8144,16 +8138,16 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>108</v>
+        <v>409</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>109</v>
+        <v>410</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>10</v>
@@ -8167,19 +8161,19 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>329</v>
+        <v>42</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>330</v>
+        <v>42</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
@@ -8190,19 +8184,19 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>413</v>
+        <v>576</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>414</v>
+        <v>10</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>10</v>
+        <v>577</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
@@ -8213,19 +8207,19 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
@@ -8236,16 +8230,16 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>329</v>
+        <v>106</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>330</v>
+        <v>107</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>10</v>
@@ -8259,19 +8253,19 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
@@ -8280,21 +8274,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>42</v>
+        <v>583</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>42</v>
+        <v>584</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>43</v>
+        <v>585</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
@@ -8305,19 +8299,19 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>578</v>
+        <v>42</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>579</v>
+        <v>43</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
@@ -8328,16 +8322,16 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>164</v>
+        <v>409</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>165</v>
+        <v>410</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>10</v>
@@ -8351,16 +8345,16 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>10</v>
@@ -8374,19 +8368,19 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
@@ -8397,19 +8391,19 @@
     </row>
     <row r="269" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D269" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="B269" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="C269" s="2" t="s">
+      <c r="E269" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>587</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
@@ -8420,19 +8414,19 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>42</v>
+        <v>371</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>42</v>
+        <v>372</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>43</v>
+        <v>372</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
@@ -8443,16 +8437,16 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>413</v>
+        <v>8</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>414</v>
+        <v>9</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>10</v>
@@ -8466,19 +8460,19 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>109</v>
+        <v>372</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>10</v>
+        <v>372</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
@@ -8487,142 +8481,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>42</v>
+        <v>599</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>43</v>
+        <v>600</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>10</v>
+        <v>599</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A274" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F274" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G274" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A275" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F275" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G275" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A276" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F276" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G276" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F277" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G277" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A278" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D278" s="2" t="s">
         <v>601</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="F278" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="G278" s="2" t="s">
-        <v>603</v>
       </c>
     </row>
   </sheetData>

--- a/data/nbb.xlsx
+++ b/data/nbb.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Q_06B_Link_Created_Groups_to_Na" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="593">
   <si>
     <t>From</t>
   </si>
@@ -136,7 +136,7 @@
     <t>ABER BE 22</t>
   </si>
   <si>
-    <t>ABK Bank</t>
+    <t>Bank J. Van Breda &amp; C°</t>
   </si>
   <si>
     <t>112</t>
@@ -289,18 +289,12 @@
     <t>BSCH BE BB RET</t>
   </si>
   <si>
-    <t>Santander Benelux</t>
+    <t>Santander Consumer Bank</t>
   </si>
   <si>
     <t>177</t>
   </si>
   <si>
-    <t>BSCH BE BR</t>
-  </si>
-  <si>
-    <t>Banco Santander</t>
-  </si>
-  <si>
     <t>178</t>
   </si>
   <si>
@@ -604,9 +598,15 @@
     <t>526</t>
   </si>
   <si>
+    <t>528</t>
+  </si>
+  <si>
     <t>529</t>
   </si>
   <si>
+    <t>Adyen B.V. - Belgian Branch</t>
+  </si>
+  <si>
     <t>530</t>
   </si>
   <si>
@@ -643,7 +643,7 @@
     <t>538</t>
   </si>
   <si>
-    <t>Hoist Finance</t>
+    <t>Hoist Finance AB</t>
   </si>
   <si>
     <t>539</t>
@@ -709,294 +709,297 @@
     <t>561</t>
   </si>
   <si>
-    <t>FTNO BE B1</t>
+    <t>562</t>
+  </si>
+  <si>
+    <t>569</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>579</t>
+  </si>
+  <si>
+    <t>CITI BE BX</t>
+  </si>
+  <si>
+    <t>Citibank Europe Plc - Belgium Branch</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>581</t>
+  </si>
+  <si>
+    <t>MHCB BE BB</t>
+  </si>
+  <si>
+    <t>Mizuho Bank Europe N.V. Brussels Branch</t>
+  </si>
+  <si>
+    <t>582</t>
+  </si>
+  <si>
+    <t>583</t>
+  </si>
+  <si>
+    <t>DEGR BE BB</t>
+  </si>
+  <si>
+    <t>Banque Degroof Petercam Luxembourg</t>
+  </si>
+  <si>
+    <t>584</t>
+  </si>
+  <si>
+    <t>ICIC BE 2X</t>
+  </si>
+  <si>
+    <t>ICICI Bank UK Limited</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>RCBP BE BB</t>
+  </si>
+  <si>
+    <t>Rothschild &amp; Cie Banque GCV</t>
+  </si>
+  <si>
+    <t>586</t>
+  </si>
+  <si>
+    <t>CFFR BE B1</t>
+  </si>
+  <si>
+    <t>Crédit Foncier de France</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>BIBL BE 21</t>
+  </si>
+  <si>
+    <t>BinckBank</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>CMCI BE B1 BTB</t>
+  </si>
+  <si>
+    <t>Banque Transatlantique Belgium</t>
+  </si>
+  <si>
+    <t>589</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>594</t>
+  </si>
+  <si>
+    <t>BSCH BE BB</t>
+  </si>
+  <si>
+    <t>595</t>
+  </si>
+  <si>
+    <t>601</t>
+  </si>
+  <si>
+    <t>602</t>
+  </si>
+  <si>
+    <t>603</t>
+  </si>
+  <si>
+    <t>604</t>
+  </si>
+  <si>
+    <t>605</t>
+  </si>
+  <si>
+    <t>BKCH BE BB</t>
+  </si>
+  <si>
+    <t>Bank of China (Luxembourg) S.A., Brussels Branch</t>
+  </si>
+  <si>
+    <t>606</t>
+  </si>
+  <si>
+    <t>607</t>
+  </si>
+  <si>
+    <t>ICBK BE BB</t>
+  </si>
+  <si>
+    <t>Industrial and Commercial Bank of China (Europe)</t>
+  </si>
+  <si>
+    <t>608</t>
+  </si>
+  <si>
+    <t>609</t>
+  </si>
+  <si>
+    <t>Elavon Financial Services Designated Activity Company</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>613</t>
+  </si>
+  <si>
+    <t>DEUT BE BE</t>
+  </si>
+  <si>
+    <t>Deutsche Bank AG</t>
+  </si>
+  <si>
+    <t>614</t>
+  </si>
+  <si>
+    <t>615</t>
+  </si>
+  <si>
+    <t>622</t>
+  </si>
+  <si>
+    <t>623</t>
+  </si>
+  <si>
+    <t>624</t>
+  </si>
+  <si>
+    <t>625</t>
+  </si>
+  <si>
+    <t>626</t>
+  </si>
+  <si>
+    <t>629</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>631</t>
+  </si>
+  <si>
+    <t>632</t>
+  </si>
+  <si>
+    <t>633</t>
+  </si>
+  <si>
+    <t>634</t>
+  </si>
+  <si>
+    <t>636</t>
+  </si>
+  <si>
+    <t>637</t>
+  </si>
+  <si>
+    <t>638</t>
+  </si>
+  <si>
+    <t>639</t>
+  </si>
+  <si>
+    <t>ABNA BE 2A MYO</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>ADIA BE 22</t>
+  </si>
+  <si>
+    <t>KBC Bank N.V. Business Center Diamant</t>
+  </si>
+  <si>
+    <t>641</t>
+  </si>
+  <si>
+    <t>642</t>
+  </si>
+  <si>
+    <t>BBVA BE BB</t>
+  </si>
+  <si>
+    <t>Banco Bilbao Vizcaya Argentaria</t>
+  </si>
+  <si>
+    <t>643</t>
+  </si>
+  <si>
+    <t>BMPB BE BB</t>
+  </si>
+  <si>
+    <t>Banca Monte Paschi Belgio</t>
+  </si>
+  <si>
+    <t>644</t>
+  </si>
+  <si>
+    <t>645</t>
+  </si>
+  <si>
+    <t>JVBA BE 22</t>
+  </si>
+  <si>
+    <t>646</t>
+  </si>
+  <si>
+    <t>647</t>
+  </si>
+  <si>
+    <t>648</t>
+  </si>
+  <si>
+    <t>649</t>
+  </si>
+  <si>
+    <t>Caisse d'Epargne et de Prévoyance Hauts de France</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>651</t>
+  </si>
+  <si>
+    <t>KEYT BE BB</t>
   </si>
   <si>
     <t>Arkéa Direct Bank (nom commercial / commerciële naam: Keytrade Bank)</t>
   </si>
   <si>
-    <t>562</t>
-  </si>
-  <si>
-    <t>569</t>
-  </si>
-  <si>
-    <t>570</t>
-  </si>
-  <si>
-    <t>579</t>
-  </si>
-  <si>
-    <t>CITI BE BX</t>
-  </si>
-  <si>
-    <t>Citibank Europe Plc - Belgium Branch</t>
-  </si>
-  <si>
-    <t>580</t>
-  </si>
-  <si>
-    <t>581</t>
-  </si>
-  <si>
-    <t>MHCB BE BB</t>
-  </si>
-  <si>
-    <t>Mizuho Bank Europe N.V. Brussels Branch</t>
-  </si>
-  <si>
-    <t>582</t>
-  </si>
-  <si>
-    <t>583</t>
-  </si>
-  <si>
-    <t>DEGR BE BB</t>
-  </si>
-  <si>
-    <t>Banque Degroof Luxembourg</t>
-  </si>
-  <si>
-    <t>584</t>
-  </si>
-  <si>
-    <t>ICIC GB 2L</t>
-  </si>
-  <si>
-    <t>ICICI Bank UK Limited</t>
-  </si>
-  <si>
-    <t>585</t>
-  </si>
-  <si>
-    <t>RCBP BE BB</t>
-  </si>
-  <si>
-    <t>Rothschild &amp; Cie Banque GCV</t>
-  </si>
-  <si>
-    <t>586</t>
-  </si>
-  <si>
-    <t>CFFR BE B1</t>
-  </si>
-  <si>
-    <t>Crédit Foncier de France</t>
-  </si>
-  <si>
-    <t>587</t>
-  </si>
-  <si>
-    <t>BIBL BE 21</t>
-  </si>
-  <si>
-    <t>BinckBank</t>
-  </si>
-  <si>
-    <t>588</t>
-  </si>
-  <si>
-    <t>CMCI BE B1 BTB</t>
-  </si>
-  <si>
-    <t>Banque Transatlantique Belgium</t>
-  </si>
-  <si>
-    <t>589</t>
-  </si>
-  <si>
-    <t>590</t>
-  </si>
-  <si>
-    <t>594</t>
-  </si>
-  <si>
-    <t>BSCH BE BB</t>
-  </si>
-  <si>
-    <t>595</t>
-  </si>
-  <si>
-    <t>601</t>
-  </si>
-  <si>
-    <t>602</t>
-  </si>
-  <si>
-    <t>603</t>
-  </si>
-  <si>
-    <t>604</t>
-  </si>
-  <si>
-    <t>605</t>
-  </si>
-  <si>
-    <t>BKCH BE BB</t>
-  </si>
-  <si>
-    <t>Bank of China (Luxembourg) S.A., Brussels Branch</t>
-  </si>
-  <si>
-    <t>606</t>
-  </si>
-  <si>
-    <t>607</t>
-  </si>
-  <si>
-    <t>ICBK BE BB</t>
-  </si>
-  <si>
-    <t>Industrial and Commercial Bank of China (Europe)</t>
-  </si>
-  <si>
-    <t>608</t>
-  </si>
-  <si>
-    <t>609</t>
-  </si>
-  <si>
-    <t>Elavon Financial Services Designated Activity Company</t>
-  </si>
-  <si>
-    <t>610</t>
-  </si>
-  <si>
-    <t>613</t>
-  </si>
-  <si>
-    <t>DEUT BE BE</t>
-  </si>
-  <si>
-    <t>Deutsche Bank AG</t>
-  </si>
-  <si>
-    <t>614</t>
-  </si>
-  <si>
-    <t>615</t>
-  </si>
-  <si>
-    <t>622</t>
-  </si>
-  <si>
-    <t>623</t>
-  </si>
-  <si>
-    <t>624</t>
-  </si>
-  <si>
-    <t>625</t>
-  </si>
-  <si>
-    <t>626</t>
-  </si>
-  <si>
-    <t>629</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>631</t>
-  </si>
-  <si>
-    <t>632</t>
-  </si>
-  <si>
-    <t>633</t>
-  </si>
-  <si>
-    <t>634</t>
-  </si>
-  <si>
-    <t>636</t>
-  </si>
-  <si>
-    <t>637</t>
-  </si>
-  <si>
-    <t>638</t>
-  </si>
-  <si>
-    <t>639</t>
-  </si>
-  <si>
-    <t>ABNA BE 2A MYO</t>
-  </si>
-  <si>
-    <t>640</t>
-  </si>
-  <si>
-    <t>ADIA BE 22</t>
-  </si>
-  <si>
-    <t>KBC Bank N.V. Business Center Diamant</t>
-  </si>
-  <si>
-    <t>641</t>
-  </si>
-  <si>
-    <t>642</t>
-  </si>
-  <si>
-    <t>BBVA BE BB</t>
-  </si>
-  <si>
-    <t>Banco Bilbao Vizcaya Argentaria</t>
-  </si>
-  <si>
-    <t>643</t>
-  </si>
-  <si>
-    <t>BMPB BE BB</t>
-  </si>
-  <si>
-    <t>Banca Monte Paschi Belgio</t>
-  </si>
-  <si>
-    <t>644</t>
-  </si>
-  <si>
-    <t>645</t>
-  </si>
-  <si>
-    <t>JVBA BE 22</t>
-  </si>
-  <si>
-    <t>Bank J. Van Breda &amp; C°</t>
-  </si>
-  <si>
-    <t>646</t>
-  </si>
-  <si>
-    <t>647</t>
-  </si>
-  <si>
-    <t>648</t>
-  </si>
-  <si>
-    <t>649</t>
-  </si>
-  <si>
-    <t>Caisse d'Epargne Nord France Europe</t>
-  </si>
-  <si>
-    <t>650</t>
-  </si>
-  <si>
-    <t>651</t>
-  </si>
-  <si>
-    <t>KEYT BE BB</t>
-  </si>
-  <si>
     <t>652</t>
   </si>
   <si>
     <t>653</t>
   </si>
   <si>
+    <t>654</t>
+  </si>
+  <si>
+    <t>Crédit foncier et communal d'Alsace et de Lorraine - Banque</t>
+  </si>
+  <si>
+    <t>655</t>
+  </si>
+  <si>
     <t>656</t>
   </si>
   <si>
@@ -1183,18 +1186,6 @@
     <t>689</t>
   </si>
   <si>
-    <t>690</t>
-  </si>
-  <si>
-    <t>BNPA BE BB</t>
-  </si>
-  <si>
-    <t>BNP Paribas</t>
-  </si>
-  <si>
-    <t>691</t>
-  </si>
-  <si>
     <t>692</t>
   </si>
   <si>
@@ -1246,7 +1237,7 @@
     <t>AXAB BE 22</t>
   </si>
   <si>
-    <t>AXA Bank Europe</t>
+    <t>AXA Bank Belgium</t>
   </si>
   <si>
     <t>710</t>
@@ -1267,12 +1258,6 @@
     <t>721</t>
   </si>
   <si>
-    <t>ABNA BE BR</t>
-  </si>
-  <si>
-    <t>The Royal Bank of Scotland Plc, Belgium branch</t>
-  </si>
-  <si>
     <t>722</t>
   </si>
   <si>
@@ -1399,9 +1384,6 @@
     <t>841</t>
   </si>
   <si>
-    <t>842</t>
-  </si>
-  <si>
     <t>843</t>
   </si>
   <si>
@@ -1432,18 +1414,9 @@
     <t>854</t>
   </si>
   <si>
-    <t>857</t>
-  </si>
-  <si>
     <t>858</t>
   </si>
   <si>
-    <t>PSAB BE B1</t>
-  </si>
-  <si>
-    <t>PSA Finance</t>
-  </si>
-  <si>
     <t>859</t>
   </si>
   <si>
@@ -1525,7 +1498,7 @@
     <t>VDSP BE 91</t>
   </si>
   <si>
-    <t>Volksdepositokas Spaarbank (VDK Spaarbank)</t>
+    <t>vdk bank</t>
   </si>
   <si>
     <t>900</t>
@@ -1597,7 +1570,7 @@
     <t>915</t>
   </si>
   <si>
-    <t>OONX BE B1</t>
+    <t>OONX BE BB</t>
   </si>
   <si>
     <t>Oonex</t>
@@ -1636,21 +1609,18 @@
     <t>924</t>
   </si>
   <si>
+    <t>FMMS BE B1</t>
+  </si>
+  <si>
+    <t>Fimaser</t>
+  </si>
+  <si>
     <t>925</t>
   </si>
   <si>
     <t>926</t>
   </si>
   <si>
-    <t>927</t>
-  </si>
-  <si>
-    <t>FETA LU LL BEL</t>
-  </si>
-  <si>
-    <t>RBC Investor Services Bank</t>
-  </si>
-  <si>
     <t>928</t>
   </si>
   <si>
@@ -1684,7 +1654,7 @@
     <t>943</t>
   </si>
   <si>
-    <t>CNH Financial Services SAS</t>
+    <t>CNH Industrial Financial Services SAS</t>
   </si>
   <si>
     <t>944</t>
@@ -1822,7 +1792,7 @@
     <t>Numéros réservés aux paiements par chèques circulaires et assignations</t>
   </si>
   <si>
-    <t>version 20/02/2017</t>
+    <t>version 03/01/2018</t>
   </si>
 </sst>
 </file>
@@ -2228,7 +2198,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G273"/>
+  <dimension ref="A1:G270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2245,7 +2215,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3015,13 +2985,13 @@
         <v>92</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -3032,16 +3002,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>10</v>
@@ -3055,10 +3025,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>42</v>
@@ -3078,16 +3048,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
@@ -3101,10 +3071,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>42</v>
@@ -3124,16 +3094,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
@@ -3147,10 +3117,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>42</v>
@@ -3170,16 +3140,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>10</v>
@@ -3193,19 +3163,19 @@
     </row>
     <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="D43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -3216,10 +3186,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>13</v>
@@ -3239,10 +3209,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>42</v>
@@ -3262,10 +3232,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
@@ -3285,10 +3255,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>8</v>
@@ -3308,22 +3278,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>10</v>
@@ -3331,16 +3301,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
@@ -3354,16 +3324,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>10</v>
@@ -3377,16 +3347,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
@@ -3400,10 +3370,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>42</v>
@@ -3423,10 +3393,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>69</v>
@@ -3446,16 +3416,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>10</v>
@@ -3469,16 +3439,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
@@ -3492,16 +3462,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>10</v>
@@ -3515,33 +3485,33 @@
     </row>
     <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>69</v>
@@ -3561,16 +3531,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
@@ -3584,19 +3554,19 @@
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -3607,16 +3577,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>10</v>
@@ -3630,16 +3600,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>10</v>
@@ -3653,10 +3623,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>42</v>
@@ -3676,16 +3646,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>10</v>
@@ -3699,10 +3669,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>42</v>
@@ -3722,16 +3692,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>10</v>
@@ -3745,10 +3715,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>42</v>
@@ -3768,16 +3738,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>10</v>
@@ -3791,16 +3761,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>10</v>
@@ -3814,19 +3784,19 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -3837,16 +3807,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>10</v>
@@ -3860,16 +3830,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>10</v>
@@ -3883,10 +3853,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>42</v>
@@ -3906,16 +3876,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>10</v>
@@ -3929,19 +3899,19 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>70</v>
+        <v>199</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -3952,19 +3922,19 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -3975,19 +3945,19 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>205</v>
+        <v>42</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -3998,19 +3968,19 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>42</v>
+        <v>205</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -4021,19 +3991,19 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -4044,19 +4014,19 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -4067,19 +4037,19 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>212</v>
+        <v>69</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -4090,19 +4060,19 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>216</v>
+        <v>10</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -4113,19 +4083,19 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>42</v>
+        <v>216</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -4136,19 +4106,19 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -4159,19 +4129,19 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>191</v>
+        <v>69</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>192</v>
+        <v>70</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -4182,19 +4152,19 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -4205,19 +4175,19 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>224</v>
+        <v>42</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -4228,16 +4198,16 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>10</v>
@@ -4251,42 +4221,42 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -4297,19 +4267,19 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -4320,19 +4290,19 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>237</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -4343,19 +4313,19 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>42</v>
+        <v>236</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -4366,19 +4336,19 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>241</v>
+        <v>42</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -4389,42 +4359,42 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>42</v>
+        <v>239</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="E95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -4435,65 +4405,65 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C97" s="2" t="s">
+      <c r="E98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="B99" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="D99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -4504,19 +4474,19 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>258</v>
+        <v>10</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>10</v>
+        <v>253</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -4527,16 +4497,16 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>10</v>
@@ -4550,19 +4520,19 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -4573,19 +4543,19 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>265</v>
+        <v>42</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -4596,16 +4566,16 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>10</v>
@@ -4619,19 +4589,19 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -4642,19 +4612,19 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -4665,19 +4635,19 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>272</v>
+        <v>42</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>273</v>
+        <v>42</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -4688,19 +4658,19 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>42</v>
+        <v>270</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>42</v>
+        <v>271</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -4711,19 +4681,19 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>276</v>
+        <v>42</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>277</v>
+        <v>42</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -4734,88 +4704,88 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>42</v>
+        <v>281</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>42</v>
+        <v>282</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -4826,22 +4796,22 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>10</v>
@@ -4849,22 +4819,22 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>10</v>
@@ -4872,19 +4842,19 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -4895,19 +4865,19 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -4918,22 +4888,22 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>10</v>
@@ -4941,22 +4911,22 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>10</v>
@@ -4964,19 +4934,19 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -4987,19 +4957,19 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -5010,19 +4980,19 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -5033,19 +5003,19 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -5056,16 +5026,16 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>305</v>
+        <v>150</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>10</v>
@@ -5079,19 +5049,19 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>42</v>
+        <v>302</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>42</v>
+        <v>303</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -5102,19 +5072,19 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>308</v>
+        <v>42</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>309</v>
+        <v>42</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -5125,16 +5095,16 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>10</v>
@@ -5148,19 +5118,19 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>42</v>
+        <v>309</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>42</v>
+        <v>310</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -5171,19 +5141,19 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>315</v>
+        <v>42</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>316</v>
+        <v>42</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -5194,19 +5164,19 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>60</v>
+        <v>313</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -5217,108 +5187,108 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B134" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E131" s="2" t="s">
+      <c r="C134" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B135" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E132" s="2" t="s">
+      <c r="C135" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+      <c r="D135" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>10</v>
@@ -5332,19 +5302,19 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -5355,19 +5325,19 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -5376,21 +5346,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>330</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>331</v>
+        <v>10</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>10</v>
+        <v>326</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -5401,10 +5371,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>42</v>
@@ -5424,19 +5394,19 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>335</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>336</v>
+        <v>18</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -5447,16 +5417,16 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>10</v>
@@ -5470,10 +5440,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>42</v>
@@ -5493,19 +5463,19 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>27</v>
+        <v>336</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>343</v>
+        <v>10</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -5516,19 +5486,19 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>42</v>
+        <v>339</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>42</v>
+        <v>340</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -5539,19 +5509,19 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>346</v>
+        <v>42</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>347</v>
+        <v>42</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -5562,19 +5532,19 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -5585,19 +5555,19 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>350</v>
+        <v>42</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>351</v>
+        <v>42</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -5608,16 +5578,16 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>10</v>
@@ -5631,19 +5601,19 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>18</v>
+        <v>343</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>19</v>
+        <v>344</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -5654,16 +5624,16 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>106</v>
+        <v>351</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>107</v>
+        <v>352</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>10</v>
@@ -5677,16 +5647,16 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>152</v>
+        <v>355</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>10</v>
@@ -5700,19 +5670,19 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>360</v>
+        <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>361</v>
+        <v>18</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -5723,16 +5693,16 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>245</v>
+        <v>104</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>363</v>
+        <v>105</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>10</v>
@@ -5744,21 +5714,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>366</v>
+        <v>10</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -5769,16 +5739,16 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>10</v>
@@ -5792,19 +5762,19 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>371</v>
+        <v>243</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>372</v>
+        <v>10</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -5813,21 +5783,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>17</v>
+        <v>366</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>19</v>
+        <v>367</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -5838,19 +5808,19 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>42</v>
+        <v>369</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>42</v>
+        <v>370</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -5861,19 +5831,19 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>17</v>
+        <v>372</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>18</v>
+        <v>373</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>19</v>
+        <v>373</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -5884,19 +5854,19 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -5907,19 +5877,19 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>380</v>
+        <v>42</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>381</v>
+        <v>42</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -5930,19 +5900,19 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>383</v>
+        <v>17</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>384</v>
+        <v>18</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -5953,19 +5923,19 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>386</v>
+        <v>42</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>387</v>
+        <v>42</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -5976,19 +5946,19 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>42</v>
+        <v>381</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>42</v>
+        <v>382</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -5999,16 +5969,16 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>10</v>
@@ -6022,19 +5992,19 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>42</v>
+        <v>387</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>42</v>
+        <v>388</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -6045,19 +6015,19 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>395</v>
+        <v>42</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>396</v>
+        <v>42</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -6068,16 +6038,16 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>283</v>
+        <v>392</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>284</v>
+        <v>393</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>10</v>
@@ -6091,19 +6061,19 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>42</v>
+        <v>281</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>42</v>
+        <v>282</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -6114,19 +6084,19 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>401</v>
+        <v>42</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -6137,19 +6107,19 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>42</v>
+        <v>397</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>42</v>
+        <v>398</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -6160,19 +6130,19 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>404</v>
+        <v>42</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>405</v>
+        <v>42</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -6183,19 +6153,19 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>42</v>
+        <v>401</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>42</v>
+        <v>402</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -6206,19 +6176,19 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>409</v>
+        <v>42</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>410</v>
+        <v>42</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -6229,19 +6199,19 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>42</v>
+        <v>406</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>42</v>
+        <v>407</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -6252,19 +6222,19 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>414</v>
+        <v>42</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -6275,16 +6245,16 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>418</v>
+        <v>150</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>10</v>
@@ -6298,19 +6268,19 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -6321,16 +6291,16 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>417</v>
+        <v>149</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>418</v>
+        <v>150</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>10</v>
@@ -6344,157 +6314,157 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="C183" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
+      <c r="B184" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B185" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
+      <c r="C185" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>432</v>
-      </c>
       <c r="B186" s="2" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -6505,16 +6475,16 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>409</v>
+        <v>130</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>410</v>
+        <v>131</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>10</v>
@@ -6528,19 +6498,19 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>17</v>
+        <v>406</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>18</v>
+        <v>407</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -6551,19 +6521,19 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>409</v>
+        <v>17</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>410</v>
+        <v>18</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
@@ -6574,16 +6544,16 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>10</v>
@@ -6597,19 +6567,19 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>42</v>
+        <v>436</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>42</v>
+        <v>437</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
@@ -6620,19 +6590,19 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>446</v>
+        <v>42</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>447</v>
+        <v>42</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
@@ -6643,16 +6613,16 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>87</v>
+        <v>441</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>10</v>
@@ -6666,16 +6636,16 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>283</v>
+        <v>87</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>284</v>
+        <v>444</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>10</v>
@@ -6689,19 +6659,19 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>42</v>
+        <v>281</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>42</v>
+        <v>282</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
@@ -6712,19 +6682,19 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
@@ -6735,19 +6705,19 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
@@ -6758,19 +6728,19 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
@@ -6781,19 +6751,19 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>458</v>
+        <v>17</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>459</v>
+        <v>18</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
@@ -6804,42 +6774,42 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>42</v>
+        <v>453</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>42</v>
+        <v>454</v>
       </c>
       <c r="E200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E201" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
@@ -6850,16 +6820,16 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>10</v>
@@ -6873,16 +6843,16 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>10</v>
@@ -6896,10 +6866,10 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>42</v>
@@ -6919,10 +6889,10 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>32</v>
@@ -6942,10 +6912,10 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>42</v>
@@ -6965,16 +6935,16 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>474</v>
+        <v>32</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>475</v>
+        <v>33</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>10</v>
@@ -6988,19 +6958,19 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
@@ -7011,19 +6981,19 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
@@ -7034,19 +7004,19 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
@@ -7057,19 +7027,19 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
@@ -7080,19 +7050,19 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
@@ -7103,19 +7073,19 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
@@ -7126,19 +7096,19 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
@@ -7149,19 +7119,19 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
@@ -7172,19 +7142,19 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>60</v>
+        <v>372</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>61</v>
+        <v>373</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>62</v>
+        <v>373</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
@@ -7195,19 +7165,19 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>371</v>
+        <v>60</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>372</v>
+        <v>61</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>372</v>
+        <v>62</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
@@ -7218,19 +7188,19 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>60</v>
+        <v>483</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
@@ -7241,19 +7211,19 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>42</v>
+        <v>486</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
@@ -7264,19 +7234,19 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>494</v>
+        <v>60</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>495</v>
+        <v>61</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
@@ -7287,19 +7257,19 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
@@ -7310,16 +7280,16 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>106</v>
+        <v>493</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>107</v>
+        <v>494</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>10</v>
@@ -7333,19 +7303,19 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>502</v>
+        <v>69</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>503</v>
+        <v>70</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
@@ -7356,19 +7326,19 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
@@ -7379,19 +7349,19 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>42</v>
+        <v>500</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>42</v>
+        <v>501</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
@@ -7402,19 +7372,19 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>509</v>
+        <v>42</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>510</v>
+        <v>42</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
@@ -7425,19 +7395,19 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>42</v>
+        <v>500</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>42</v>
+        <v>501</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
@@ -7448,19 +7418,19 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>509</v>
+        <v>42</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>510</v>
+        <v>42</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
@@ -7469,18 +7439,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>231</v>
+        <v>104</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>232</v>
+        <v>105</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>10</v>
@@ -7494,16 +7464,16 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>106</v>
+        <v>507</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>107</v>
+        <v>508</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>10</v>
@@ -7517,16 +7487,16 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>516</v>
+        <v>27</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>10</v>
@@ -7540,16 +7510,16 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>27</v>
+        <v>512</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>10</v>
@@ -7563,16 +7533,16 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>10</v>
@@ -7586,16 +7556,16 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>10</v>
@@ -7609,16 +7579,16 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>10</v>
@@ -7632,16 +7602,16 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>10</v>
@@ -7655,19 +7625,19 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>533</v>
+        <v>42</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>534</v>
+        <v>42</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
@@ -7678,19 +7648,19 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
@@ -7701,16 +7671,16 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>106</v>
+        <v>531</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>107</v>
+        <v>532</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>10</v>
@@ -7724,19 +7694,19 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
@@ -7747,19 +7717,19 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
@@ -7770,19 +7740,19 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
@@ -7793,16 +7763,16 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>10</v>
@@ -7816,19 +7786,19 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>42</v>
+        <v>542</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>42</v>
+        <v>543</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
@@ -7839,16 +7809,16 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>10</v>
@@ -7862,16 +7832,16 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>549</v>
+        <v>27</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>10</v>
@@ -7885,16 +7855,16 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>552</v>
+        <v>351</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>10</v>
@@ -7908,16 +7878,16 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>166</v>
+        <v>550</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>167</v>
+        <v>551</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>10</v>
@@ -7931,19 +7901,19 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>556</v>
+        <v>42</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>10</v>
@@ -7954,16 +7924,16 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>350</v>
+        <v>555</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>10</v>
@@ -7977,16 +7947,16 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>560</v>
+        <v>36</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>561</v>
+        <v>37</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>10</v>
@@ -8000,19 +7970,19 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>10</v>
@@ -8023,16 +7993,16 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>565</v>
+        <v>104</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>566</v>
+        <v>105</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>10</v>
@@ -8046,19 +8016,19 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
@@ -8069,16 +8039,16 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>151</v>
+        <v>406</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>152</v>
+        <v>407</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>10</v>
@@ -8092,19 +8062,19 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>10</v>
@@ -8115,19 +8085,19 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>42</v>
+        <v>566</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>43</v>
+        <v>567</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
@@ -8138,16 +8108,16 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>409</v>
+        <v>164</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>410</v>
+        <v>165</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>10</v>
@@ -8161,19 +8131,19 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
@@ -8184,42 +8154,42 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G260" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E261" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="F260" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G260" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
@@ -8230,19 +8200,19 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
@@ -8253,19 +8223,19 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>69</v>
+        <v>406</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>70</v>
+        <v>407</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
@@ -8274,21 +8244,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>583</v>
+        <v>104</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>584</v>
+        <v>105</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>585</v>
+        <v>10</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
@@ -8299,10 +8269,10 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>42</v>
@@ -8320,21 +8290,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>409</v>
+        <v>573</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>410</v>
+        <v>574</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>10</v>
+        <v>575</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
@@ -8345,19 +8315,19 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>106</v>
+        <v>372</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>107</v>
+        <v>373</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>10</v>
+        <v>373</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
@@ -8368,140 +8338,71 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G268" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F269" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G269" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D270" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="E270" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="F270" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C268" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E268" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F268" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G268" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A269" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="B269" s="2" t="s">
+      <c r="G270" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="F269" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G269" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F270" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G270" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F271" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G271" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F272" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G272" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A273" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="F273" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="G273" s="2" t="s">
-        <v>601</v>
       </c>
     </row>
   </sheetData>

--- a/data/nbb.xlsx
+++ b/data/nbb.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nbb.local\res\Library\PRXNWEBP\DOC\BE\BE\protocol\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B2830B7A-E5C7-4CF6-BAEF-472AD90A0F5B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q_06B_Link_Created_Groups_to_Na" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="598">
   <si>
     <t>From</t>
   </si>
@@ -247,7 +253,7 @@
     <t>BCMC BE BB</t>
   </si>
   <si>
-    <t>Bancontact - Mister Cash NV/SA</t>
+    <t>Bancontact Payconiq Company</t>
   </si>
   <si>
     <t>151</t>
@@ -331,7 +337,13 @@
     <t>HBKA BE 22</t>
   </si>
   <si>
-    <t>Record Bank</t>
+    <t>ING België</t>
+  </si>
+  <si>
+    <t>ING Belgique</t>
+  </si>
+  <si>
+    <t>ING Belgium</t>
   </si>
   <si>
     <t>186</t>
@@ -391,15 +403,6 @@
     <t>BBRU BE BB</t>
   </si>
   <si>
-    <t>ING België</t>
-  </si>
-  <si>
-    <t>ING Belgique</t>
-  </si>
-  <si>
-    <t>ING Belgium</t>
-  </si>
-  <si>
     <t>400</t>
   </si>
   <si>
@@ -433,9 +436,18 @@
     <t>502</t>
   </si>
   <si>
+    <t>503</t>
+  </si>
+  <si>
     <t>504</t>
   </si>
   <si>
+    <t>PANX BE B1</t>
+  </si>
+  <si>
+    <t>PAY-NXT</t>
+  </si>
+  <si>
     <t>505</t>
   </si>
   <si>
@@ -766,7 +778,7 @@
     <t>RCBP BE BB</t>
   </si>
   <si>
-    <t>Rothschild &amp; Cie Banque GCV</t>
+    <t>Rothschild Belgique Succursale Rothschild Martin Maurel</t>
   </si>
   <si>
     <t>586</t>
@@ -868,12 +880,6 @@
     <t>614</t>
   </si>
   <si>
-    <t>615</t>
-  </si>
-  <si>
-    <t>622</t>
-  </si>
-  <si>
     <t>623</t>
   </si>
   <si>
@@ -952,6 +958,9 @@
     <t>644</t>
   </si>
   <si>
+    <t>FCA Bank S.p.A.</t>
+  </si>
+  <si>
     <t>645</t>
   </si>
   <si>
@@ -1339,7 +1348,7 @@
     <t>823</t>
   </si>
   <si>
-    <t>BLUX BE 41</t>
+    <t>BLUX BE BB</t>
   </si>
   <si>
     <t>Banque de Luxembourg</t>
@@ -1453,6 +1462,9 @@
     <t>870</t>
   </si>
   <si>
+    <t>871</t>
+  </si>
+  <si>
     <t>872</t>
   </si>
   <si>
@@ -1465,9 +1477,6 @@
     <t>875</t>
   </si>
   <si>
-    <t>VRIJ - LIBRE</t>
-  </si>
-  <si>
     <t>876</t>
   </si>
   <si>
@@ -1621,9 +1630,21 @@
     <t>926</t>
   </si>
   <si>
+    <t>EBPB BE B1</t>
+  </si>
+  <si>
+    <t>Ebury Partners Belgium</t>
+  </si>
+  <si>
+    <t>927</t>
+  </si>
+  <si>
     <t>928</t>
   </si>
   <si>
+    <t>VIVA Payment Services</t>
+  </si>
+  <si>
     <t>929</t>
   </si>
   <si>
@@ -1792,13 +1813,13 @@
     <t>Numéros réservés aux paiements par chèques circulaires et assignations</t>
   </si>
   <si>
-    <t>version 03/01/2018</t>
+    <t>version 04/09/2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1907,6 +1928,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1954,7 +1978,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1987,9 +2011,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2022,6 +2063,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2197,15 +2255,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G270"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" customWidth="1"/>
     <col min="4" max="4" width="58.42578125" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
@@ -2215,7 +2273,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3106,10 +3164,10 @@
         <v>105</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>10</v>
@@ -3117,10 +3175,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>42</v>
@@ -3140,16 +3198,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>10</v>
@@ -3163,19 +3221,19 @@
     </row>
     <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -3186,10 +3244,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>13</v>
@@ -3209,10 +3267,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>42</v>
@@ -3232,10 +3290,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
@@ -3255,10 +3313,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>8</v>
@@ -3278,22 +3336,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>10</v>
@@ -3301,16 +3359,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
@@ -3324,16 +3382,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>10</v>
@@ -3347,16 +3405,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
@@ -3370,10 +3428,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>42</v>
@@ -3393,19 +3451,19 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E53" s="2" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -3419,16 +3477,16 @@
         <v>142</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -3439,16 +3497,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
@@ -3462,134 +3520,134 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="B57" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="E57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="B58" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="B60" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="B61" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -3600,16 +3658,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>10</v>
@@ -3623,19 +3681,19 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D63" s="2" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -3646,19 +3704,19 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -3669,19 +3727,19 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D65" s="2" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -3692,19 +3750,19 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -3715,19 +3773,19 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D67" s="2" t="s">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -3738,19 +3796,19 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -3761,16 +3819,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>10</v>
@@ -3784,19 +3842,19 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>187</v>
+        <v>10</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -3807,19 +3865,19 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -3830,16 +3888,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>10</v>
@@ -3856,16 +3914,16 @@
         <v>193</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D73" s="2" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -3879,16 +3937,16 @@
         <v>195</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>196</v>
+        <v>42</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -3905,10 +3963,10 @@
         <v>197</v>
       </c>
       <c r="C75" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>10</v>
@@ -3922,19 +3980,19 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="D76" s="2" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -3945,19 +4003,19 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -3971,16 +4029,16 @@
         <v>203</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>205</v>
+        <v>42</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -3991,19 +4049,19 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -4017,16 +4075,16 @@
         <v>208</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -4043,13 +4101,13 @@
         <v>210</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>70</v>
+        <v>211</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -4060,19 +4118,19 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>212</v>
+        <v>69</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -4083,19 +4141,19 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C83" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>216</v>
+        <v>10</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -4106,19 +4164,19 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>43</v>
+        <v>218</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -4132,16 +4190,16 @@
         <v>219</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -4152,19 +4210,19 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -4175,19 +4233,19 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -4198,19 +4256,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>224</v>
+        <v>42</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -4221,16 +4279,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C89" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>10</v>
@@ -4244,19 +4302,19 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -4270,16 +4328,16 @@
         <v>230</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -4290,19 +4348,19 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>232</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -4319,13 +4377,13 @@
         <v>234</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>235</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>236</v>
+        <v>18</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -4336,19 +4394,19 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D94" s="2" t="s">
-        <v>42</v>
+        <v>238</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -4359,19 +4417,19 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>240</v>
+        <v>42</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -4382,19 +4440,19 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D96" s="2" t="s">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -4405,19 +4463,19 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>243</v>
+        <v>42</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>244</v>
+        <v>42</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -4428,65 +4486,65 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C98" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="B99" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C99" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="B100" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C100" s="2" t="s">
+      <c r="D100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -4497,19 +4555,19 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C101" s="2" t="s">
+      <c r="D101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -4520,16 +4578,16 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C102" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>10</v>
@@ -4543,19 +4601,19 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D103" s="2" t="s">
-        <v>42</v>
+        <v>261</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -4566,19 +4624,19 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>262</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>263</v>
+        <v>42</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -4589,16 +4647,16 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="D105" s="2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>10</v>
@@ -4615,16 +4673,16 @@
         <v>266</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -4635,19 +4693,19 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -4661,16 +4719,16 @@
         <v>269</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>270</v>
+        <v>42</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>271</v>
+        <v>42</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -4681,19 +4739,19 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D109" s="2" t="s">
-        <v>42</v>
+        <v>273</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -4704,19 +4762,19 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>274</v>
+        <v>42</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>275</v>
+        <v>42</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -4727,88 +4785,88 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D111" s="2" t="s">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="E111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D114" s="2" t="s">
-        <v>42</v>
+        <v>284</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -4819,22 +4877,22 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>10</v>
@@ -4842,19 +4900,19 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -4865,19 +4923,19 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -4888,22 +4946,22 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>10</v>
@@ -4911,22 +4969,22 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>10</v>
@@ -4934,19 +4992,19 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -4957,19 +5015,19 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -4980,19 +5038,19 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -5003,19 +5061,19 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -5026,16 +5084,16 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>150</v>
+        <v>303</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>10</v>
@@ -5049,19 +5107,19 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>302</v>
+        <v>42</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>303</v>
+        <v>42</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -5072,19 +5130,19 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>42</v>
+        <v>307</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -5095,16 +5153,16 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>10</v>
@@ -5118,16 +5176,16 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>309</v>
+        <v>87</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>10</v>
@@ -5141,19 +5199,19 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>42</v>
+        <v>314</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -5164,19 +5222,19 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>313</v>
+        <v>60</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -5187,19 +5245,19 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -5208,45 +5266,45 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E132" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
@@ -5254,21 +5312,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>42</v>
+        <v>323</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -5277,24 +5335,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>321</v>
+        <v>104</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>322</v>
+        <v>105</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>10</v>
@@ -5302,19 +5360,19 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -5323,44 +5381,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E137" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -5371,19 +5429,19 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -5394,19 +5452,19 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>332</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>18</v>
+        <v>333</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -5417,19 +5475,19 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>331</v>
+        <v>42</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>332</v>
+        <v>42</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -5440,19 +5498,19 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>42</v>
+        <v>337</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>42</v>
+        <v>338</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -5463,16 +5521,16 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>10</v>
@@ -5486,19 +5544,19 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>339</v>
+        <v>42</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>340</v>
+        <v>42</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -5509,19 +5567,19 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>42</v>
+        <v>344</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>43</v>
+        <v>345</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -5532,19 +5590,19 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>343</v>
+        <v>42</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>344</v>
+        <v>43</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -5555,19 +5613,19 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>42</v>
+        <v>348</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>42</v>
+        <v>349</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -5578,19 +5636,19 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>347</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>10</v>
+        <v>345</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -5601,19 +5659,19 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>27</v>
+        <v>352</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>344</v>
+        <v>10</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -5624,16 +5682,16 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>10</v>
@@ -5647,19 +5705,19 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>354</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>355</v>
+        <v>18</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -5670,22 +5728,22 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>10</v>
@@ -5693,16 +5751,16 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>104</v>
+        <v>360</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>10</v>
@@ -5716,16 +5774,16 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>150</v>
+        <v>363</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>10</v>
@@ -5739,16 +5797,16 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>361</v>
+        <v>245</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>10</v>
@@ -5760,21 +5818,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>243</v>
+        <v>367</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>364</v>
+        <v>10</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>10</v>
+        <v>368</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -5783,21 +5841,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>10</v>
+        <v>371</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>367</v>
+        <v>10</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -5808,19 +5866,19 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>10</v>
+        <v>374</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -5831,19 +5889,19 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>372</v>
+        <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>373</v>
+        <v>18</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>373</v>
+        <v>19</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -5854,19 +5912,19 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -5877,19 +5935,19 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -5900,19 +5958,19 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -5923,19 +5981,19 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>42</v>
+        <v>382</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>42</v>
+        <v>383</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -5946,16 +6004,16 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>10</v>
@@ -5969,16 +6027,16 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>10</v>
@@ -5992,19 +6050,19 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>387</v>
+        <v>42</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>388</v>
+        <v>42</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -6015,19 +6073,19 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>42</v>
+        <v>393</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>42</v>
+        <v>394</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -6038,16 +6096,16 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>392</v>
+        <v>283</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>393</v>
+        <v>284</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>10</v>
@@ -6061,19 +6119,19 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>281</v>
+        <v>42</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>282</v>
+        <v>42</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -6084,19 +6142,19 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>42</v>
+        <v>398</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>42</v>
+        <v>399</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -6107,19 +6165,19 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>397</v>
+        <v>42</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>398</v>
+        <v>42</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -6130,19 +6188,19 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>42</v>
+        <v>402</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>42</v>
+        <v>403</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -6153,19 +6211,19 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>401</v>
+        <v>42</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>402</v>
+        <v>42</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -6176,19 +6234,19 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>42</v>
+        <v>407</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>42</v>
+        <v>408</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -6199,19 +6257,19 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>406</v>
+        <v>42</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>407</v>
+        <v>42</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -6222,19 +6280,19 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>42</v>
+        <v>412</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -6245,19 +6303,19 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>411</v>
+        <v>42</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -6268,19 +6326,19 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -6291,19 +6349,19 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -6314,19 +6372,19 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -6335,44 +6393,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C181" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D181" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E182" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -6381,44 +6439,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C183" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D183" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E184" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -6427,44 +6485,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C185" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D185" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E186" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -6475,16 +6533,16 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>130</v>
+        <v>407</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>131</v>
+        <v>408</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>10</v>
@@ -6498,19 +6556,19 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>406</v>
+        <v>17</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>407</v>
+        <v>18</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -6521,19 +6579,19 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>17</v>
+        <v>407</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>18</v>
+        <v>408</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
@@ -6544,16 +6602,16 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>406</v>
+        <v>437</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>407</v>
+        <v>438</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>10</v>
@@ -6567,19 +6625,19 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>436</v>
+        <v>42</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>437</v>
+        <v>42</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
@@ -6590,19 +6648,19 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>42</v>
+        <v>442</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>42</v>
+        <v>443</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
@@ -6613,16 +6671,16 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>441</v>
+        <v>87</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>10</v>
@@ -6636,16 +6694,16 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>87</v>
+        <v>283</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>444</v>
+        <v>284</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>10</v>
@@ -6659,19 +6717,19 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>281</v>
+        <v>42</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>282</v>
+        <v>42</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
@@ -6682,22 +6740,22 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>10</v>
@@ -6705,19 +6763,19 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
@@ -6728,19 +6786,19 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
@@ -6751,19 +6809,19 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>17</v>
+        <v>454</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>18</v>
+        <v>455</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
@@ -6774,19 +6832,19 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>453</v>
+        <v>42</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>454</v>
+        <v>42</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
@@ -6797,19 +6855,19 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>42</v>
+        <v>459</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>42</v>
+        <v>460</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
@@ -6820,16 +6878,16 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>458</v>
+        <v>245</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>459</v>
+        <v>365</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>10</v>
@@ -6843,19 +6901,19 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>243</v>
+        <v>42</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>364</v>
+        <v>42</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
@@ -6866,19 +6924,19 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
@@ -6889,19 +6947,19 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
@@ -6912,19 +6970,19 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
@@ -6935,19 +6993,19 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
@@ -6958,19 +7016,19 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
@@ -6981,19 +7039,19 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
@@ -7004,19 +7062,19 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
@@ -7027,19 +7085,19 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
@@ -7050,19 +7108,19 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
@@ -7073,19 +7131,19 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
@@ -7096,19 +7154,19 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
@@ -7119,19 +7177,19 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
@@ -7142,19 +7200,19 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
@@ -7165,19 +7223,19 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
@@ -7188,19 +7246,19 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>42</v>
+        <v>487</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
@@ -7211,19 +7269,19 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>485</v>
+        <v>60</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>486</v>
+        <v>61</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
@@ -7234,22 +7292,22 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G220" s="2" t="s">
         <v>10</v>
@@ -7257,16 +7315,16 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>104</v>
+        <v>494</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>105</v>
+        <v>495</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>10</v>
@@ -7280,19 +7338,19 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>493</v>
+        <v>69</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>494</v>
+        <v>70</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
@@ -7303,19 +7361,19 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
@@ -7326,19 +7384,19 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>42</v>
+        <v>501</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>42</v>
+        <v>502</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
@@ -7349,19 +7407,19 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>500</v>
+        <v>42</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>501</v>
+        <v>42</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
@@ -7372,19 +7430,19 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D226" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E226" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
@@ -7395,19 +7453,19 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>500</v>
+        <v>42</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>501</v>
+        <v>42</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
@@ -7418,22 +7476,22 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G228" s="2" t="s">
         <v>10</v>
@@ -7441,16 +7499,16 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>104</v>
+        <v>508</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>105</v>
+        <v>509</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>10</v>
@@ -7464,16 +7522,16 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>507</v>
+        <v>27</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>10</v>
@@ -7487,16 +7545,16 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>27</v>
+        <v>513</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>10</v>
@@ -7510,16 +7568,16 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>10</v>
@@ -7533,16 +7591,16 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>10</v>
@@ -7556,16 +7614,16 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>10</v>
@@ -7579,16 +7637,16 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>10</v>
@@ -7602,19 +7660,19 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>524</v>
+        <v>42</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>525</v>
+        <v>42</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
@@ -7625,22 +7683,22 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G237" s="2" t="s">
         <v>10</v>
@@ -7648,16 +7706,16 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>104</v>
+        <v>532</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>105</v>
+        <v>533</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>10</v>
@@ -7671,22 +7729,22 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>531</v>
+        <v>104</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>532</v>
+        <v>105</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>10</v>
@@ -7694,16 +7752,16 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>104</v>
+        <v>536</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>105</v>
+        <v>537</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>10</v>
@@ -7717,10 +7775,10 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>42</v>
@@ -7740,16 +7798,16 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>105</v>
+        <v>540</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>10</v>
@@ -7763,22 +7821,22 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>539</v>
+        <v>104</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>540</v>
+        <v>105</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G243" s="2" t="s">
         <v>10</v>
@@ -7786,16 +7844,16 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>10</v>
@@ -7809,16 +7867,16 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>164</v>
+        <v>547</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>165</v>
+        <v>548</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>10</v>
@@ -7832,16 +7890,16 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>546</v>
+        <v>167</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>10</v>
@@ -7855,16 +7913,16 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>351</v>
+        <v>27</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>10</v>
@@ -7878,16 +7936,16 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>550</v>
+        <v>352</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>10</v>
@@ -7901,19 +7959,19 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>42</v>
+        <v>555</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>42</v>
+        <v>556</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>10</v>
@@ -7924,19 +7982,19 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>555</v>
+        <v>42</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>556</v>
+        <v>42</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>10</v>
@@ -7947,16 +8005,16 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>36</v>
+        <v>560</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>37</v>
+        <v>561</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>10</v>
@@ -7970,16 +8028,16 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>10</v>
@@ -7993,16 +8051,16 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>10</v>
@@ -8016,22 +8074,22 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G254" s="2" t="s">
         <v>10</v>
@@ -8039,19 +8097,19 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>406</v>
+        <v>42</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>407</v>
+        <v>42</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>10</v>
@@ -8062,19 +8120,19 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>42</v>
+        <v>407</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>42</v>
+        <v>408</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>10</v>
@@ -8085,19 +8143,19 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>566</v>
+        <v>42</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>567</v>
+        <v>43</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
@@ -8108,19 +8166,19 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>164</v>
+        <v>571</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>10</v>
+        <v>572</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>10</v>
@@ -8131,16 +8189,16 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>10</v>
@@ -8154,43 +8212,43 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C260" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G260" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C261" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D260" s="2" t="s">
+      <c r="D261" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E260" s="2" t="s">
+      <c r="E261" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F260" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G260" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A261" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>575</v>
-      </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
       </c>
@@ -8198,21 +8256,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>42</v>
+        <v>578</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>42</v>
+        <v>579</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>43</v>
+        <v>580</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
@@ -8223,19 +8281,19 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>406</v>
+        <v>42</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>407</v>
+        <v>42</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
@@ -8246,16 +8304,16 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>104</v>
+        <v>407</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>105</v>
+        <v>408</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>10</v>
@@ -8269,65 +8327,65 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G265" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G266" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D267" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B265" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E265" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F265" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G265" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A266" s="2" t="s">
+      <c r="E267" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="E266" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="F266" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G266" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A267" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
@@ -8338,19 +8396,19 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>8</v>
+        <v>373</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>9</v>
+        <v>374</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>10</v>
+        <v>374</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
@@ -8361,19 +8419,19 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>373</v>
+        <v>9</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>373</v>
+        <v>10</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
@@ -8382,27 +8440,50 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>589</v>
+        <v>374</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>590</v>
+        <v>374</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>589</v>
+        <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>591</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="G271" s="2" t="s">
+        <v>596</v>
       </c>
     </row>
   </sheetData>

--- a/data/nbb.xlsx
+++ b/data/nbb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nbb.local\res\Library\PRXNWEBP\DOC\BE\BE\protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B2830B7A-E5C7-4CF6-BAEF-472AD90A0F5B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B520D36-6D7C-44CD-99C6-C9784EAD2532}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q_06B_Link_Created_Groups_to_Na" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3950" uniqueCount="613">
   <si>
     <t>From</t>
   </si>
@@ -334,75 +334,72 @@
     <t>185</t>
   </si>
   <si>
-    <t>HBKA BE 22</t>
+    <t>BBRU BE BB</t>
   </si>
   <si>
     <t>ING België</t>
   </si>
   <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>SMBC BE BB</t>
+  </si>
+  <si>
+    <t>Sumitomo Mitsui Banking Corporation (SMBC)</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>CREG BE BB</t>
+  </si>
+  <si>
+    <t>CBC Banque et Assurances</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>399</t>
+  </si>
+  <si>
     <t>ING Belgique</t>
   </si>
   <si>
     <t>ING Belgium</t>
   </si>
   <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>SMBC BE BB</t>
-  </si>
-  <si>
-    <t>Sumitomo Mitsui Banking Corporation (SMBC)</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>CREG BE BB</t>
-  </si>
-  <si>
-    <t>CBC Banque et Assurances</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>298</t>
-  </si>
-  <si>
-    <t>299</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>399</t>
-  </si>
-  <si>
-    <t>BBRU BE BB</t>
-  </si>
-  <si>
     <t>400</t>
   </si>
   <si>
@@ -514,7 +511,7 @@
     <t>SGPB BE 99</t>
   </si>
   <si>
-    <t>Société Générale Private Banking</t>
+    <t>ABN AMRO Private Banking Belgium</t>
   </si>
   <si>
     <t>514</t>
@@ -538,15 +535,6 @@
     <t>516</t>
   </si>
   <si>
-    <t>517</t>
-  </si>
-  <si>
-    <t>FORD BE 21</t>
-  </si>
-  <si>
-    <t>FCE Bank</t>
-  </si>
-  <si>
     <t>518</t>
   </si>
   <si>
@@ -610,15 +598,9 @@
     <t>526</t>
   </si>
   <si>
-    <t>528</t>
-  </si>
-  <si>
     <t>529</t>
   </si>
   <si>
-    <t>Adyen B.V. - Belgian Branch</t>
-  </si>
-  <si>
     <t>530</t>
   </si>
   <si>
@@ -631,9 +613,6 @@
     <t>531</t>
   </si>
   <si>
-    <t>532</t>
-  </si>
-  <si>
     <t>534</t>
   </si>
   <si>
@@ -664,12 +643,6 @@
     <t>540</t>
   </si>
   <si>
-    <t>UBIN BE 22</t>
-  </si>
-  <si>
-    <t>Union Bank of India</t>
-  </si>
-  <si>
     <t>541</t>
   </si>
   <si>
@@ -766,12 +739,6 @@
     <t>584</t>
   </si>
   <si>
-    <t>ICIC BE 2X</t>
-  </si>
-  <si>
-    <t>ICICI Bank UK Limited</t>
-  </si>
-  <si>
     <t>585</t>
   </si>
   <si>
@@ -829,9 +796,6 @@
     <t>602</t>
   </si>
   <si>
-    <t>603</t>
-  </si>
-  <si>
     <t>604</t>
   </si>
   <si>
@@ -976,6 +940,9 @@
     <t>648</t>
   </si>
   <si>
+    <t>BMPB BE BB VOD</t>
+  </si>
+  <si>
     <t>649</t>
   </si>
   <si>
@@ -1171,7 +1138,7 @@
     <t>BOFA BE 3X</t>
   </si>
   <si>
-    <t>Bank of Amerika Merrill Lynch International Ltd</t>
+    <t>Bank of Amerika Merrill Lynch International DAC - Brussels Branch</t>
   </si>
   <si>
     <t>687</t>
@@ -1495,6 +1462,30 @@
     <t>880</t>
   </si>
   <si>
+    <t>881</t>
+  </si>
+  <si>
+    <t>882</t>
+  </si>
+  <si>
+    <t>883</t>
+  </si>
+  <si>
+    <t>884</t>
+  </si>
+  <si>
+    <t>885</t>
+  </si>
+  <si>
+    <t>886</t>
+  </si>
+  <si>
+    <t>887</t>
+  </si>
+  <si>
+    <t>888</t>
+  </si>
+  <si>
     <t>889</t>
   </si>
   <si>
@@ -1612,6 +1603,12 @@
     <t>920</t>
   </si>
   <si>
+    <t>921</t>
+  </si>
+  <si>
+    <t>922</t>
+  </si>
+  <si>
     <t>923</t>
   </si>
   <si>
@@ -1642,12 +1639,39 @@
     <t>928</t>
   </si>
   <si>
+    <t>VPAY BE 21</t>
+  </si>
+  <si>
     <t>VIVA Payment Services</t>
   </si>
   <si>
     <t>929</t>
   </si>
   <si>
+    <t>931</t>
+  </si>
+  <si>
+    <t>932</t>
+  </si>
+  <si>
+    <t>933</t>
+  </si>
+  <si>
+    <t>934</t>
+  </si>
+  <si>
+    <t>935</t>
+  </si>
+  <si>
+    <t>936</t>
+  </si>
+  <si>
+    <t>937</t>
+  </si>
+  <si>
+    <t>938</t>
+  </si>
+  <si>
     <t>939</t>
   </si>
   <si>
@@ -1690,22 +1714,31 @@
     <t>JPMG BE BB</t>
   </si>
   <si>
-    <t>J.P. Morgan International Bank Limited</t>
+    <t>J.P. Morgan Bank Luxembourg - Brussels Branch</t>
   </si>
   <si>
     <t>946</t>
   </si>
   <si>
+    <t>J.P. Morgan AG</t>
+  </si>
+  <si>
+    <t>947</t>
+  </si>
+  <si>
     <t>948</t>
   </si>
   <si>
+    <t>HomeSend</t>
+  </si>
+  <si>
     <t>949</t>
   </si>
   <si>
     <t>HSBC BE BB</t>
   </si>
   <si>
-    <t>HSBC Bank</t>
+    <t>HSBC France Belgian Branch</t>
   </si>
   <si>
     <t>950</t>
@@ -1729,9 +1762,18 @@
     <t>964</t>
   </si>
   <si>
+    <t>966</t>
+  </si>
+  <si>
     <t>967</t>
   </si>
   <si>
+    <t>TRWI BE B1</t>
+  </si>
+  <si>
+    <t>TransferWise</t>
+  </si>
+  <si>
     <t>968</t>
   </si>
   <si>
@@ -1777,6 +1819,9 @@
     <t>977</t>
   </si>
   <si>
+    <t>Paynovate</t>
+  </si>
+  <si>
     <t>978</t>
   </si>
   <si>
@@ -1813,7 +1858,7 @@
     <t>Numéros réservés aux paiements par chèques circulaires et assignations</t>
   </si>
   <si>
-    <t>version 04/09/2018</t>
+    <t>version 03/07/2019</t>
   </si>
 </sst>
 </file>
@@ -2256,7 +2301,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G271"/>
+  <dimension ref="A1:G283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2273,7 +2318,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3164,10 +3209,10 @@
         <v>105</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>10</v>
@@ -3175,10 +3220,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>42</v>
@@ -3198,16 +3243,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>10</v>
@@ -3221,19 +3266,19 @@
     </row>
     <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="D43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -3244,10 +3289,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>13</v>
@@ -3267,10 +3312,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>42</v>
@@ -3290,10 +3335,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
@@ -3313,10 +3358,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>8</v>
@@ -3336,22 +3381,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>10</v>
@@ -3359,16 +3404,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
@@ -3382,16 +3427,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>10</v>
@@ -3405,16 +3450,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
@@ -3428,10 +3473,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>42</v>
@@ -3451,16 +3496,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>10</v>
@@ -3474,19 +3519,19 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -3497,16 +3542,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
@@ -3520,16 +3565,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>10</v>
@@ -3543,16 +3588,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
@@ -3566,42 +3611,42 @@
     </row>
     <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -3612,42 +3657,42 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="B61" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E61" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -3658,16 +3703,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>10</v>
@@ -3681,16 +3726,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>10</v>
@@ -3704,7 +3749,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>171</v>
@@ -3802,13 +3847,13 @@
         <v>179</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -3819,19 +3864,19 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -3842,16 +3887,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>10</v>
@@ -3865,19 +3910,19 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -3888,19 +3933,19 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -3920,7 +3965,7 @@
         <v>194</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>10</v>
@@ -3934,10 +3979,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>42</v>
@@ -3957,16 +4002,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>87</v>
+        <v>199</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>10</v>
@@ -3980,19 +4025,19 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>201</v>
+        <v>42</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -4003,19 +4048,19 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>70</v>
+        <v>204</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -4026,19 +4071,19 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -4049,19 +4094,19 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -4072,19 +4117,19 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>43</v>
+        <v>209</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -4098,16 +4143,16 @@
         <v>210</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -4147,10 +4192,10 @@
         <v>213</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>10</v>
@@ -4164,19 +4209,19 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>217</v>
+        <v>42</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>218</v>
+        <v>42</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>218</v>
+        <v>43</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -4187,19 +4232,19 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>42</v>
+        <v>216</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>42</v>
+        <v>217</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -4210,19 +4255,19 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>69</v>
+        <v>219</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -4233,19 +4278,19 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>191</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -4282,16 +4327,16 @@
         <v>224</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>225</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>226</v>
+        <v>18</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -4302,7 +4347,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>227</v>
@@ -4328,16 +4373,16 @@
         <v>230</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -4348,19 +4393,19 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D92" s="2" t="s">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -4371,19 +4416,19 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>234</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -4397,13 +4442,13 @@
         <v>235</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>10</v>
@@ -4417,10 +4462,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>42</v>
@@ -4438,21 +4483,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C96" s="2" t="s">
+      <c r="D96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -4463,19 +4508,19 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D97" s="2" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>43</v>
+        <v>244</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -4486,16 +4531,16 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>10</v>
@@ -4509,16 +4554,16 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>10</v>
@@ -4530,21 +4575,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>251</v>
+        <v>42</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -4555,7 +4600,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>253</v>
@@ -4564,10 +4609,10 @@
         <v>254</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>255</v>
+        <v>10</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -4578,16 +4623,16 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>256</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>10</v>
@@ -4601,19 +4646,19 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>260</v>
+        <v>42</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>261</v>
+        <v>42</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -4624,19 +4669,19 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>42</v>
+        <v>260</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>42</v>
+        <v>261</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -4647,19 +4692,19 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>265</v>
+        <v>42</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -4670,16 +4715,16 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>36</v>
+        <v>264</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>37</v>
+        <v>265</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>10</v>
@@ -4693,62 +4738,62 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C109" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>10</v>
@@ -4762,7 +4807,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>274</v>
@@ -4788,16 +4833,16 @@
         <v>275</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>276</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -4808,7 +4853,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>278</v>
@@ -4829,27 +4874,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>280</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -4860,13 +4905,13 @@
         <v>282</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>284</v>
+        <v>42</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -4877,19 +4922,19 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -4900,19 +4945,19 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -4923,19 +4968,19 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -4946,22 +4991,22 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>126</v>
+        <v>288</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>10</v>
@@ -4969,19 +5014,19 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>42</v>
+        <v>291</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -4992,19 +5037,19 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -5015,19 +5060,19 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>42</v>
+        <v>295</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -5038,19 +5083,19 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E122" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -5067,10 +5112,10 @@
         <v>299</v>
       </c>
       <c r="C123" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>10</v>
@@ -5093,7 +5138,7 @@
         <v>302</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>303</v>
+        <v>40</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>10</v>
@@ -5107,19 +5152,19 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>304</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -5139,33 +5184,33 @@
         <v>306</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+      <c r="B127" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -5176,39 +5221,39 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D128" s="2" t="s">
+      <c r="D129" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>10</v>
@@ -5222,19 +5267,19 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -5245,10 +5290,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>42</v>
@@ -5268,10 +5313,10 @@
     </row>
     <row r="132" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>27</v>
@@ -5280,7 +5325,7 @@
         <v>10</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -5291,10 +5336,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>42</v>
@@ -5312,21 +5357,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>322</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>323</v>
+        <v>18</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -5337,22 +5382,22 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>104</v>
+        <v>321</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>105</v>
+        <v>322</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>10</v>
@@ -5360,10 +5405,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>42</v>
@@ -5381,21 +5426,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D137" s="2" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -5409,16 +5454,16 @@
         <v>328</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D138" s="2" t="s">
-        <v>42</v>
+        <v>330</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -5429,19 +5474,19 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -5452,19 +5497,19 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>332</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>333</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>10</v>
+        <v>334</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -5475,19 +5520,19 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>335</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -5527,13 +5572,13 @@
         <v>339</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>340</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>10</v>
+        <v>334</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -5544,19 +5589,19 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E144" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -5573,13 +5618,13 @@
         <v>343</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>27</v>
+        <v>344</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>345</v>
+        <v>10</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -5596,13 +5641,13 @@
         <v>346</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -5619,10 +5664,10 @@
         <v>347</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>348</v>
+        <v>104</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>349</v>
+        <v>105</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>10</v>
@@ -5636,19 +5681,19 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>27</v>
+        <v>349</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>344</v>
+        <v>151</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>345</v>
+        <v>10</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -5659,16 +5704,16 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C149" s="2" t="s">
+      <c r="D149" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>10</v>
@@ -5682,42 +5727,42 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C150" s="2" t="s">
+      <c r="E150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="B151" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="E150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
+      <c r="D151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -5734,16 +5779,16 @@
         <v>358</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>104</v>
+        <v>359</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>105</v>
+        <v>360</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>10</v>
@@ -5751,19 +5796,19 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>152</v>
+        <v>363</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>10</v>
+        <v>363</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -5774,19 +5819,19 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>362</v>
+        <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -5797,19 +5842,19 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>245</v>
+        <v>42</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>365</v>
+        <v>42</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -5818,21 +5863,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>366</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>367</v>
+        <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>368</v>
+        <v>19</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -5843,42 +5888,42 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C157" s="2" t="s">
+      <c r="B158" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="C158" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="E157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
+      <c r="D158" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>374</v>
-      </c>
       <c r="E158" s="2" t="s">
-        <v>374</v>
+        <v>10</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -5889,19 +5934,19 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E159" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -5918,13 +5963,13 @@
         <v>376</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>42</v>
+        <v>377</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>42</v>
+        <v>378</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -5935,19 +5980,19 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -5958,19 +6003,19 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>42</v>
+        <v>382</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>42</v>
+        <v>383</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -5981,16 +6026,16 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>382</v>
+        <v>271</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>383</v>
+        <v>272</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>10</v>
@@ -6004,19 +6049,19 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>385</v>
+        <v>42</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>386</v>
+        <v>42</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -6027,16 +6072,16 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C165" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C165" s="2" t="s">
+      <c r="D165" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>10</v>
@@ -6050,10 +6095,10 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>42</v>
@@ -6073,16 +6118,16 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>10</v>
@@ -6096,19 +6141,19 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>284</v>
+        <v>42</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -6119,19 +6164,19 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C169" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D169" s="2" t="s">
-        <v>42</v>
+        <v>397</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -6142,19 +6187,19 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>398</v>
+        <v>42</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>399</v>
+        <v>42</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -6171,13 +6216,13 @@
         <v>400</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>42</v>
+        <v>401</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -6188,19 +6233,19 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>402</v>
+        <v>42</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>403</v>
+        <v>42</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -6217,13 +6262,13 @@
         <v>404</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -6240,13 +6285,13 @@
         <v>406</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>407</v>
+        <v>42</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>408</v>
+        <v>42</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -6257,42 +6302,42 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B176" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>411</v>
-      </c>
       <c r="C176" s="2" t="s">
-        <v>412</v>
+        <v>113</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -6303,42 +6348,42 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>415</v>
-      </c>
       <c r="B178" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -6349,65 +6394,65 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B180" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
+      <c r="B181" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C180" s="2" t="s">
+      <c r="C181" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D180" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E181" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -6418,42 +6463,42 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="C183" s="2" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -6464,42 +6509,42 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B185" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
+      <c r="D185" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E185" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -6516,13 +6561,13 @@
         <v>429</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -6536,13 +6581,13 @@
         <v>430</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="D187" s="2" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>10</v>
@@ -6556,19 +6601,19 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>433</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -6579,16 +6624,16 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>407</v>
+        <v>271</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>408</v>
+        <v>272</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>10</v>
@@ -6602,19 +6647,19 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>437</v>
+        <v>42</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>438</v>
+        <v>42</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
@@ -6625,19 +6670,19 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
@@ -6648,19 +6693,19 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>442</v>
+        <v>42</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
@@ -6671,19 +6716,19 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>445</v>
+        <v>18</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
@@ -6694,16 +6739,16 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>283</v>
+        <v>443</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>284</v>
+        <v>444</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>10</v>
@@ -6717,10 +6762,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>42</v>
@@ -6740,22 +6785,22 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E196" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>10</v>
@@ -6769,13 +6814,13 @@
         <v>450</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>42</v>
+        <v>236</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>42</v>
+        <v>354</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
@@ -6792,13 +6837,13 @@
         <v>452</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
@@ -6812,13 +6857,13 @@
         <v>453</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>454</v>
+        <v>32</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>455</v>
+        <v>33</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>10</v>
@@ -6832,10 +6877,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>457</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>42</v>
@@ -6855,16 +6900,16 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>458</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>459</v>
+        <v>32</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>460</v>
+        <v>33</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>10</v>
@@ -6878,19 +6923,19 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>245</v>
+        <v>42</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>365</v>
+        <v>42</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
@@ -6901,19 +6946,19 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
@@ -6924,19 +6969,19 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
@@ -6947,19 +6992,19 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
@@ -6970,19 +7015,19 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
@@ -6993,19 +7038,19 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
@@ -7016,19 +7061,19 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
@@ -7039,19 +7084,19 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
@@ -7062,19 +7107,19 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
@@ -7085,19 +7130,19 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>42</v>
+        <v>362</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>42</v>
+        <v>363</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>43</v>
+        <v>363</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
@@ -7108,19 +7153,19 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
@@ -7131,19 +7176,19 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>42</v>
+        <v>475</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>42</v>
+        <v>476</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
@@ -7154,10 +7199,10 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>60</v>
@@ -7177,19 +7222,19 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
@@ -7200,19 +7245,19 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>373</v>
+        <v>42</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>374</v>
+        <v>42</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>374</v>
+        <v>43</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
@@ -7223,19 +7268,19 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="C217" s="2" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
@@ -7246,19 +7291,19 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>485</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>486</v>
+        <v>42</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>487</v>
+        <v>42</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
@@ -7269,19 +7314,19 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
@@ -7292,22 +7337,22 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
         <v>10</v>
@@ -7315,16 +7360,16 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>10</v>
@@ -7338,10 +7383,10 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>69</v>
@@ -7361,10 +7406,10 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>42</v>
@@ -7384,16 +7429,16 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>10</v>
@@ -7407,10 +7452,10 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>42</v>
@@ -7430,16 +7475,16 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>10</v>
@@ -7453,10 +7498,10 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>42</v>
@@ -7476,10 +7521,10 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>104</v>
@@ -7488,10 +7533,10 @@
         <v>105</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
         <v>10</v>
@@ -7499,16 +7544,16 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>10</v>
@@ -7522,16 +7567,16 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>10</v>
@@ -7545,16 +7590,16 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>10</v>
@@ -7568,16 +7613,16 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>10</v>
@@ -7591,16 +7636,16 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>10</v>
@@ -7614,16 +7659,16 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>10</v>
@@ -7637,16 +7682,16 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>10</v>
@@ -7660,10 +7705,10 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>42</v>
@@ -7683,10 +7728,10 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>104</v>
@@ -7695,10 +7740,10 @@
         <v>105</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
         <v>10</v>
@@ -7706,19 +7751,19 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>532</v>
+        <v>42</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>533</v>
+        <v>42</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
@@ -7729,10 +7774,10 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>104</v>
@@ -7741,10 +7786,10 @@
         <v>105</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>10</v>
@@ -7752,16 +7797,16 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>10</v>
@@ -7775,10 +7820,10 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>42</v>
@@ -7798,16 +7843,16 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>87</v>
+        <v>535</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>10</v>
@@ -7821,22 +7866,22 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
         <v>10</v>
@@ -7844,16 +7889,16 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>10</v>
@@ -7867,16 +7912,16 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>547</v>
+        <v>104</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>548</v>
+        <v>105</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>10</v>
@@ -7890,19 +7935,19 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
@@ -7913,16 +7958,16 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>551</v>
+        <v>105</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>10</v>
@@ -7936,19 +7981,19 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>352</v>
+        <v>42</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>553</v>
+        <v>42</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
@@ -7959,16 +8004,16 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>555</v>
+        <v>104</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>556</v>
+        <v>105</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>10</v>
@@ -7982,10 +8027,10 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>42</v>
@@ -8005,16 +8050,16 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>560</v>
+        <v>104</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>561</v>
+        <v>105</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>10</v>
@@ -8028,16 +8073,16 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>36</v>
+        <v>552</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>37</v>
+        <v>553</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>10</v>
@@ -8051,16 +8096,16 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>151</v>
+        <v>555</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>152</v>
+        <v>556</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>10</v>
@@ -8074,22 +8119,22 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
         <v>10</v>
@@ -8097,19 +8142,19 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>42</v>
+        <v>559</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>10</v>
@@ -8120,16 +8165,16 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>407</v>
+        <v>341</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>408</v>
+        <v>561</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>10</v>
@@ -8143,19 +8188,19 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>42</v>
+        <v>563</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>42</v>
+        <v>564</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
@@ -8166,19 +8211,19 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>571</v>
+        <v>522</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>10</v>
+        <v>566</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>572</v>
+        <v>10</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>10</v>
@@ -8189,19 +8234,19 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
@@ -8212,22 +8257,22 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>104</v>
+        <v>341</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>105</v>
+        <v>569</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
         <v>10</v>
@@ -8235,19 +8280,19 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>69</v>
+        <v>571</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>70</v>
+        <v>572</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
@@ -8256,21 +8301,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>578</v>
+        <v>36</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>579</v>
+        <v>37</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>580</v>
+        <v>10</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
@@ -8281,19 +8326,19 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
@@ -8304,16 +8349,16 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>407</v>
+        <v>104</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>408</v>
+        <v>105</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>10</v>
@@ -8327,22 +8372,22 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
         <v>10</v>
@@ -8350,42 +8395,42 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>42</v>
+        <v>396</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>42</v>
+        <v>397</v>
       </c>
       <c r="E266" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G266" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E267" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F266" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G266" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A267" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>580</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
@@ -8396,19 +8441,19 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>373</v>
+        <v>582</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>374</v>
+        <v>583</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>374</v>
+        <v>10</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
@@ -8419,19 +8464,19 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>8</v>
+        <v>585</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>10</v>
+        <v>586</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
@@ -8442,52 +8487,328 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G270" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G271" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G272" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G273" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="B270" s="2" t="s">
+      <c r="B274" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="C274" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G274" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G275" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G276" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G277" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C278" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D270" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="F270" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G270" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A271" s="2" t="s">
+      <c r="D278" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G278" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C279" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="D279" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="E279" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G279" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G280" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G281" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C282" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D271" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="F271" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="G271" s="2" t="s">
-        <v>596</v>
+      <c r="D282" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="G283" s="2" t="s">
+        <v>611</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>